--- a/allen/0314_allen.xlsx
+++ b/allen/0314_allen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Documents/course/4490/Jan.29/allen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C183681-5F3F-C84F-BD11-73383045E36B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8D7F4B-8832-6147-87B2-631B3CB41584}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{AC1511F3-6BA7-BE48-A015-DD3B5079386A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="4" xr2:uid="{AC1511F3-6BA7-BE48-A015-DD3B5079386A}"/>
   </bookViews>
   <sheets>
     <sheet name="order diff_0.1" sheetId="1" r:id="rId1"/>
@@ -17600,8 +17600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF16A8E3-8919-453D-ABD1-0B00F4C48563}">
   <dimension ref="A1:AY53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>

--- a/allen/0314_allen.xlsx
+++ b/allen/0314_allen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Documents/course/4490/Jan.29/allen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8D7F4B-8832-6147-87B2-631B3CB41584}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA652871-3D51-8D46-BD09-C20CC5525D4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="4" xr2:uid="{AC1511F3-6BA7-BE48-A015-DD3B5079386A}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{AC1511F3-6BA7-BE48-A015-DD3B5079386A}"/>
   </bookViews>
   <sheets>
     <sheet name="order diff_0.1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="187">
   <si>
     <t>gender</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>``</t>
+  </si>
+  <si>
+    <t>LSTM_Order_39</t>
   </si>
 </sst>
 </file>
@@ -17598,10 +17601,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF16A8E3-8919-453D-ABD1-0B00F4C48563}">
-  <dimension ref="A1:AY53"/>
+  <dimension ref="A1:AZ53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AV17" sqref="AV17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -17638,11 +17641,13 @@
     <col min="44" max="45" width="34.33203125" customWidth="1"/>
     <col min="46" max="46" width="21.83203125" customWidth="1"/>
     <col min="47" max="47" width="29.6640625" customWidth="1"/>
-    <col min="49" max="49" width="20.6640625" customWidth="1"/>
-    <col min="50" max="50" width="29.6640625" customWidth="1"/>
+    <col min="48" max="48" width="28.1640625" customWidth="1"/>
+    <col min="49" max="49" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.6640625" customWidth="1"/>
+    <col min="51" max="51" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="2" customFormat="1" ht="33" customHeight="1">
+    <row r="1" spans="1:52" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -17784,20 +17789,23 @@
       <c r="AU1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AV1" s="17" t="s">
+      <c r="AV1" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="AW1" s="18" t="s">
+      <c r="AX1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="AX1" s="18" t="s">
+      <c r="AY1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AY1" s="18" t="s">
+      <c r="AZ1" s="18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:52">
       <c r="A2" s="28" t="s">
         <v>13</v>
       </c>
@@ -17925,19 +17933,22 @@
         <v>0.81</v>
       </c>
       <c r="AV2">
+        <v>0.77777779102325395</v>
+      </c>
+      <c r="AW2">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AW2" s="31">
+      <c r="AX2" s="31">
         <v>1</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>0.88900000000000001</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>0.86</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:52">
       <c r="A3" s="28" t="s">
         <v>24</v>
       </c>
@@ -18065,19 +18076,22 @@
         <v>0.86</v>
       </c>
       <c r="AV3">
+        <v>0.80555558204650801</v>
+      </c>
+      <c r="AW3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AW3" s="31">
+      <c r="AX3" s="31">
         <v>2</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <v>0.86099999999999999</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:52">
       <c r="A4" s="28" t="s">
         <v>29</v>
       </c>
@@ -18208,19 +18222,22 @@
         <v>0.72</v>
       </c>
       <c r="AV4">
+        <v>0.88888889551162698</v>
+      </c>
+      <c r="AW4">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AW4" s="31">
+      <c r="AX4" s="31">
         <v>3</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <v>0.75</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>0.69</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:52">
       <c r="A5" s="28" t="s">
         <v>34</v>
       </c>
@@ -18348,19 +18365,22 @@
         <v>0.86</v>
       </c>
       <c r="AV5">
+        <v>0.63888889551162698</v>
+      </c>
+      <c r="AW5">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AW5" s="31">
+      <c r="AX5" s="31">
         <v>4</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <v>0.61</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:52">
       <c r="A6" s="28" t="s">
         <v>40</v>
       </c>
@@ -18488,19 +18508,22 @@
         <v>0.67</v>
       </c>
       <c r="AV6">
+        <v>0.86111110448837203</v>
+      </c>
+      <c r="AW6">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AW6" s="31">
+      <c r="AX6" s="31">
         <v>5</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <v>0.88900000000000001</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>0.81</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:52">
       <c r="A7" s="28" t="s">
         <v>39</v>
       </c>
@@ -18628,19 +18651,22 @@
         <v>0.67</v>
       </c>
       <c r="AV7">
+        <v>0.80555558204650801</v>
+      </c>
+      <c r="AW7">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AW7" s="31">
+      <c r="AX7" s="31">
         <v>6</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <v>0.86099999999999999</v>
       </c>
-      <c r="AY7">
+      <c r="AZ7">
         <v>0.83</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:52">
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
@@ -18765,19 +18791,22 @@
         <v>0.61</v>
       </c>
       <c r="AV8">
+        <v>0.77777779102325395</v>
+      </c>
+      <c r="AW8">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AW8" s="31">
+      <c r="AX8" s="31">
         <v>7</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <v>0.83299999999999996</v>
       </c>
-      <c r="AY8">
+      <c r="AZ8">
         <v>0.86</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:52">
       <c r="A9" s="28" t="s">
         <v>46</v>
       </c>
@@ -18905,19 +18934,22 @@
         <v>0.86</v>
       </c>
       <c r="AV9">
+        <v>0.5</v>
+      </c>
+      <c r="AW9">
         <v>0.55555555555555503</v>
       </c>
-      <c r="AW9" s="31">
+      <c r="AX9" s="31">
         <v>8</v>
       </c>
-      <c r="AX9">
+      <c r="AY9">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AY9">
+      <c r="AZ9">
         <v>0.64</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:52">
       <c r="A10" s="28" t="s">
         <v>49</v>
       </c>
@@ -19042,19 +19074,22 @@
         <v>0.94</v>
       </c>
       <c r="AV10">
+        <v>0.72222220897674505</v>
+      </c>
+      <c r="AW10">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AW10" s="31">
+      <c r="AX10" s="31">
         <v>9</v>
       </c>
-      <c r="AX10">
+      <c r="AY10">
         <v>0.69399999999999995</v>
       </c>
-      <c r="AY10">
+      <c r="AZ10">
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:52">
       <c r="A11" s="28" t="s">
         <v>50</v>
       </c>
@@ -19182,19 +19217,22 @@
         <v>0.69</v>
       </c>
       <c r="AV11">
+        <v>0.75</v>
+      </c>
+      <c r="AW11">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AW11" s="31">
+      <c r="AX11" s="31">
         <v>10</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>0.69399999999999995</v>
       </c>
-      <c r="AY11">
+      <c r="AZ11">
         <v>0.69</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:52">
       <c r="A12" s="28" t="s">
         <v>54</v>
       </c>
@@ -19322,13 +19360,16 @@
         <v>0.72</v>
       </c>
       <c r="AV12">
+        <v>0.73333334922790505</v>
+      </c>
+      <c r="AW12">
         <v>0.6</v>
       </c>
-      <c r="AW12">
+      <c r="AX12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:52">
       <c r="A13" s="28" t="s">
         <v>57</v>
       </c>
@@ -19449,17 +19490,14 @@
       <c r="AT13">
         <v>12</v>
       </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
+      <c r="AW13">
         <v>-1</v>
       </c>
-      <c r="AW13">
+      <c r="AX13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:52">
       <c r="A14" s="28" t="s">
         <v>65</v>
       </c>
@@ -19587,13 +19625,16 @@
         <v>0.89</v>
       </c>
       <c r="AV14">
+        <v>0.77777779102325395</v>
+      </c>
+      <c r="AW14">
         <v>0.91666666666666596</v>
       </c>
-      <c r="AW14">
+      <c r="AX14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:52">
       <c r="A15" s="28" t="s">
         <v>69</v>
       </c>
@@ -19724,13 +19765,16 @@
         <v>0.75</v>
       </c>
       <c r="AV15">
+        <v>0.73333334922790505</v>
+      </c>
+      <c r="AW15">
         <v>0.73333333333333295</v>
       </c>
-      <c r="AW15">
+      <c r="AX15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:52">
       <c r="A16" s="32" t="s">
         <v>75</v>
       </c>
@@ -19858,19 +19902,22 @@
         <v>0.81</v>
       </c>
       <c r="AV16">
+        <v>0.61111110448837203</v>
+      </c>
+      <c r="AW16">
         <v>0.44444444444444398</v>
       </c>
-      <c r="AW16" s="31">
+      <c r="AX16" s="31">
         <v>15</v>
       </c>
-      <c r="AX16">
+      <c r="AY16">
         <v>0.69399999999999995</v>
       </c>
-      <c r="AY16">
+      <c r="AZ16">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:52">
       <c r="A17" s="28" t="s">
         <v>80</v>
       </c>
@@ -19995,19 +20042,22 @@
         <v>0.78</v>
       </c>
       <c r="AV17">
+        <v>0.63888889551162698</v>
+      </c>
+      <c r="AW17">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AW17" s="31">
+      <c r="AX17" s="31">
         <v>16</v>
       </c>
-      <c r="AX17">
+      <c r="AY17">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AY17">
+      <c r="AZ17">
         <v>0.72</v>
       </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:52">
       <c r="A18" s="28" t="s">
         <v>84</v>
       </c>
@@ -20132,19 +20182,22 @@
         <v>0.77</v>
       </c>
       <c r="AV18">
+        <v>0.80555558204650801</v>
+      </c>
+      <c r="AW18">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AW18" s="31">
+      <c r="AX18" s="31">
         <v>17</v>
       </c>
-      <c r="AX18">
+      <c r="AY18">
         <v>0.66700000000000004</v>
       </c>
-      <c r="AY18">
+      <c r="AZ18">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:52">
       <c r="A19" s="28" t="s">
         <v>85</v>
       </c>
@@ -20272,19 +20325,22 @@
         <v>0.87</v>
       </c>
       <c r="AV19">
+        <v>0.61111110448837203</v>
+      </c>
+      <c r="AW19">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AW19" s="31">
+      <c r="AX19" s="31">
         <v>18</v>
       </c>
-      <c r="AX19">
+      <c r="AY19">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AY19">
+      <c r="AZ19">
         <v>0.61</v>
       </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:52">
       <c r="A20" s="28" t="s">
         <v>88</v>
       </c>
@@ -20411,17 +20467,14 @@
       <c r="AT20">
         <v>19</v>
       </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
+      <c r="AW20">
         <v>-1</v>
       </c>
-      <c r="AW20">
+      <c r="AX20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:52">
       <c r="A21" s="28" t="s">
         <v>91</v>
       </c>
@@ -20546,19 +20599,22 @@
         <v>0.89</v>
       </c>
       <c r="AV21">
+        <v>0.52777779102325395</v>
+      </c>
+      <c r="AW21">
         <v>0.5</v>
       </c>
-      <c r="AW21" s="31">
+      <c r="AX21" s="31">
         <v>20</v>
       </c>
-      <c r="AX21">
+      <c r="AY21">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AY21">
+      <c r="AZ21">
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:52">
       <c r="A22" s="27" t="s">
         <v>93</v>
       </c>
@@ -20686,19 +20742,22 @@
         <v>0.86</v>
       </c>
       <c r="AV22">
+        <v>0.55555558204650801</v>
+      </c>
+      <c r="AW22">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AW22" s="31">
+      <c r="AX22" s="31">
         <v>21</v>
       </c>
-      <c r="AX22">
+      <c r="AY22">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AY22">
+      <c r="AZ22">
         <v>0.69</v>
       </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:52">
       <c r="A23" s="27" t="s">
         <v>94</v>
       </c>
@@ -20828,17 +20887,20 @@
       <c r="AV23">
         <v>0.5</v>
       </c>
-      <c r="AW23" s="31">
+      <c r="AW23">
+        <v>0.5</v>
+      </c>
+      <c r="AX23" s="31">
         <v>22</v>
       </c>
-      <c r="AX23">
+      <c r="AY23">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AY23">
+      <c r="AZ23">
         <v>0.92</v>
       </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:52">
       <c r="A24" s="27" t="s">
         <v>95</v>
       </c>
@@ -20963,19 +21025,22 @@
         <v>0.67</v>
       </c>
       <c r="AV24">
+        <v>0.52777779102325395</v>
+      </c>
+      <c r="AW24">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AW24" s="31">
+      <c r="AX24" s="31">
         <v>23</v>
       </c>
-      <c r="AX24">
+      <c r="AY24">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AY24">
+      <c r="AZ24">
         <v>0.47</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:52">
       <c r="A25" s="22" t="s">
         <v>104</v>
       </c>
@@ -21103,19 +21168,22 @@
         <v>0.86</v>
       </c>
       <c r="AV25">
+        <v>0.77777779102325395</v>
+      </c>
+      <c r="AW25">
         <v>0.75</v>
       </c>
-      <c r="AW25" s="31">
+      <c r="AX25" s="31">
         <v>24</v>
       </c>
-      <c r="AX25">
+      <c r="AY25">
         <v>0.66700000000000004</v>
       </c>
-      <c r="AY25">
+      <c r="AZ25">
         <v>0.64</v>
       </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:52">
       <c r="A26" s="22" t="s">
         <v>105</v>
       </c>
@@ -21246,19 +21314,22 @@
         <v>0.89</v>
       </c>
       <c r="AV26">
+        <v>0.86111110448837203</v>
+      </c>
+      <c r="AW26">
         <v>0.75</v>
       </c>
-      <c r="AW26" s="31">
+      <c r="AX26" s="31">
         <v>25</v>
       </c>
-      <c r="AX26">
+      <c r="AY26">
         <v>0.88900000000000001</v>
       </c>
-      <c r="AY26">
+      <c r="AZ26">
         <v>0.64</v>
       </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:52">
       <c r="A27" s="22" t="s">
         <v>109</v>
       </c>
@@ -21386,19 +21457,22 @@
         <v>0.86</v>
       </c>
       <c r="AV27">
+        <v>0.72222220897674505</v>
+      </c>
+      <c r="AW27">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AW27" s="31">
+      <c r="AX27" s="31">
         <v>26</v>
       </c>
-      <c r="AX27">
+      <c r="AY27">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AY27">
+      <c r="AZ27">
         <v>0.86</v>
       </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:52">
       <c r="A28" s="22" t="s">
         <v>113</v>
       </c>
@@ -21523,19 +21597,22 @@
         <v>0.69</v>
       </c>
       <c r="AV28">
+        <v>0.77777779102325395</v>
+      </c>
+      <c r="AW28">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AW28" s="31">
+      <c r="AX28" s="31">
         <v>27</v>
       </c>
-      <c r="AX28">
+      <c r="AY28">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AY28">
+      <c r="AZ28">
         <v>0.86</v>
       </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:52">
       <c r="A29" s="22" t="s">
         <v>115</v>
       </c>
@@ -21663,19 +21740,22 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="AV29">
+        <v>0.63888889551162698</v>
+      </c>
+      <c r="AW29">
         <v>0.58333333333333304</v>
       </c>
-      <c r="AW29" s="31">
+      <c r="AX29" s="31">
         <v>28</v>
       </c>
-      <c r="AX29">
+      <c r="AY29">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AY29">
+      <c r="AZ29">
         <v>0.64</v>
       </c>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:52">
       <c r="A30" s="22" t="s">
         <v>117</v>
       </c>
@@ -21803,19 +21883,22 @@
         <v>0.72</v>
       </c>
       <c r="AV30">
+        <v>0.58333331346511796</v>
+      </c>
+      <c r="AW30">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AW30" s="31">
+      <c r="AX30" s="31">
         <v>29</v>
       </c>
-      <c r="AX30">
+      <c r="AY30">
         <v>0.91700000000000004</v>
       </c>
-      <c r="AY30">
+      <c r="AZ30">
         <v>0.72</v>
       </c>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:52">
       <c r="A31" s="22" t="s">
         <v>119</v>
       </c>
@@ -21943,19 +22026,22 @@
         <v>0.73</v>
       </c>
       <c r="AV31">
+        <v>0.83333331346511796</v>
+      </c>
+      <c r="AW31">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AW31" s="31">
+      <c r="AX31" s="31">
         <v>30</v>
       </c>
-      <c r="AX31">
+      <c r="AY31">
         <v>0.86099999999999999</v>
       </c>
-      <c r="AY31">
+      <c r="AZ31">
         <v>0.61</v>
       </c>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:52">
       <c r="A32" s="22" t="s">
         <v>120</v>
       </c>
@@ -22080,19 +22166,22 @@
         <v>0.47</v>
       </c>
       <c r="AV32">
+        <v>0.75</v>
+      </c>
+      <c r="AW32">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AW32" s="31">
+      <c r="AX32" s="31">
         <v>31</v>
       </c>
-      <c r="AX32">
+      <c r="AY32">
         <v>0.69399999999999995</v>
       </c>
-      <c r="AY32">
+      <c r="AZ32">
         <v>0.67</v>
       </c>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:52">
       <c r="A33" s="22" t="s">
         <v>121</v>
       </c>
@@ -22217,19 +22306,22 @@
         <v>0.89</v>
       </c>
       <c r="AV33">
+        <v>0.88888889551162698</v>
+      </c>
+      <c r="AW33">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AW33" s="31">
+      <c r="AX33" s="31">
         <v>32</v>
       </c>
-      <c r="AX33">
+      <c r="AY33">
         <v>0.66700000000000004</v>
       </c>
-      <c r="AY33">
+      <c r="AZ33">
         <v>0.69</v>
       </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:52">
       <c r="A34" s="22" t="s">
         <v>122</v>
       </c>
@@ -22357,19 +22449,22 @@
         <v>0.77</v>
       </c>
       <c r="AV34">
+        <v>0.58333331346511796</v>
+      </c>
+      <c r="AW34">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AW34" s="31">
+      <c r="AX34" s="31">
         <v>33</v>
       </c>
-      <c r="AX34">
+      <c r="AY34">
         <v>0.58299999999999996</v>
       </c>
-      <c r="AY34">
+      <c r="AZ34">
         <v>0.81</v>
       </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:52">
       <c r="A35" s="22" t="s">
         <v>123</v>
       </c>
@@ -22494,16 +22589,19 @@
         <v>0.42</v>
       </c>
       <c r="AV35">
+        <v>0.72222220897674505</v>
+      </c>
+      <c r="AW35">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AW35" s="31">
+      <c r="AX35" s="31">
         <v>34</v>
       </c>
-      <c r="AX35">
+      <c r="AY35">
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:52">
       <c r="A36" s="22" t="s">
         <v>124</v>
       </c>
@@ -22628,16 +22726,19 @@
         <v>0.64</v>
       </c>
       <c r="AV36">
+        <v>0.61111110448837203</v>
+      </c>
+      <c r="AW36">
         <v>0.58333333333333304</v>
       </c>
-      <c r="AW36" s="31">
+      <c r="AX36" s="31">
         <v>35</v>
       </c>
-      <c r="AX36">
+      <c r="AY36">
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:52">
       <c r="A37" s="27" t="s">
         <v>125</v>
       </c>
@@ -22762,16 +22863,19 @@
         <v>0.78</v>
       </c>
       <c r="AV37">
+        <v>0.66666668653488104</v>
+      </c>
+      <c r="AW37">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AW37" s="31">
+      <c r="AX37" s="31">
         <v>36</v>
       </c>
-      <c r="AX37">
+      <c r="AY37">
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:52">
       <c r="A38" s="28" t="s">
         <v>129</v>
       </c>
@@ -22895,17 +22999,14 @@
       <c r="AT38">
         <v>37</v>
       </c>
-      <c r="AU38">
-        <v>0</v>
-      </c>
-      <c r="AV38">
+      <c r="AW38">
         <v>-1</v>
       </c>
-      <c r="AW38">
+      <c r="AX38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:52">
       <c r="A39" s="22" t="s">
         <v>133</v>
       </c>
@@ -23033,13 +23134,16 @@
         <v>0.75</v>
       </c>
       <c r="AV39">
+        <v>0.72222220897674505</v>
+      </c>
+      <c r="AW39">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AW39" s="31">
+      <c r="AX39" s="31">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:52">
       <c r="A40" s="22" t="s">
         <v>134</v>
       </c>
@@ -23167,13 +23271,16 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="AV40">
+        <v>0.80555558204650801</v>
+      </c>
+      <c r="AW40">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AW40" s="31">
+      <c r="AX40" s="31">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:52">
       <c r="A41" s="27" t="s">
         <v>135</v>
       </c>
@@ -23301,13 +23408,16 @@
         <v>0.67</v>
       </c>
       <c r="AV41">
+        <v>0.76666665077209395</v>
+      </c>
+      <c r="AW41">
         <v>0.76666666666666605</v>
       </c>
-      <c r="AW41">
+      <c r="AX41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="1:52">
       <c r="A42" s="28" t="s">
         <v>138</v>
       </c>
@@ -23392,13 +23502,16 @@
         <v>41</v>
       </c>
       <c r="AV42">
-        <v>41</v>
+        <v>0.66666668653488104</v>
       </c>
       <c r="AW42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:51">
+      <c r="AX42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52">
       <c r="A43" s="27" t="s">
         <v>136</v>
       </c>
@@ -23512,11 +23625,14 @@
       <c r="AU43">
         <v>42</v>
       </c>
-      <c r="AW43">
+      <c r="AV43">
+        <v>0.63333332538604703</v>
+      </c>
+      <c r="AX43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:51">
+    <row r="44" spans="1:52">
       <c r="T44" s="41">
         <v>0.58333333333333304</v>
       </c>
@@ -23584,8 +23700,12 @@
       </c>
       <c r="AT44" s="43"/>
       <c r="AU44" s="43"/>
-    </row>
-    <row r="45" spans="1:51">
+      <c r="AV44" s="43">
+        <f>AVERAGE(AV2:AV43)</f>
+        <v>0.70669516080465056</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52">
       <c r="T45" s="41">
         <v>0.80555555555555503</v>
       </c>
@@ -23617,16 +23737,17 @@
       <c r="AR45" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="AW45">
-        <f t="shared" ref="AW45:AX45" si="3">AVERAGE(AW2:AW44)</f>
+      <c r="AV45" s="44"/>
+      <c r="AX45">
+        <f t="shared" ref="AX45:AY45" si="3">AVERAGE(AX2:AX44)</f>
         <v>21.5</v>
       </c>
-      <c r="AX45">
+      <c r="AY45">
         <f t="shared" si="3"/>
         <v>0.73654838709677428</v>
       </c>
     </row>
-    <row r="46" spans="1:51">
+    <row r="46" spans="1:52">
       <c r="T46" s="41">
         <v>0.61111111111111105</v>
       </c>
@@ -23658,8 +23779,12 @@
       <c r="AR46" s="44" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="47" spans="1:51">
+      <c r="AV46" s="44">
+        <f>CORREL(AU2:AU41,AV2:AV41)</f>
+        <v>-8.2548468795546934E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52">
       <c r="T47" s="41">
         <v>0.75</v>
       </c>

--- a/allen/0314_allen.xlsx
+++ b/allen/0314_allen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Documents/course/4490/Jan.29/allen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA652871-3D51-8D46-BD09-C20CC5525D4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBE0DCA-D89B-4B4D-AAED-B3D19D87FD5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{AC1511F3-6BA7-BE48-A015-DD3B5079386A}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{AC1511F3-6BA7-BE48-A015-DD3B5079386A}"/>
   </bookViews>
   <sheets>
     <sheet name="order diff_0.1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="188">
   <si>
     <t>gender</t>
   </si>
@@ -599,6 +599,9 @@
   </si>
   <si>
     <t>LSTM_Order_39</t>
+  </si>
+  <si>
+    <t>LSTM_Order_42</t>
   </si>
 </sst>
 </file>
@@ -17601,10 +17604,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF16A8E3-8919-453D-ABD1-0B00F4C48563}">
-  <dimension ref="A1:AZ53"/>
+  <dimension ref="A1:BA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AV17" sqref="AV17"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AW27" sqref="AW27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -17634,20 +17637,20 @@
     <col min="27" max="27" width="27.6640625" customWidth="1"/>
     <col min="28" max="30" width="28" customWidth="1"/>
     <col min="31" max="31" width="9.5" customWidth="1"/>
-    <col min="33" max="34" width="28.1640625" customWidth="1"/>
-    <col min="35" max="35" width="32.1640625" customWidth="1"/>
-    <col min="36" max="36" width="28.1640625" customWidth="1"/>
-    <col min="37" max="43" width="29.6640625" customWidth="1"/>
-    <col min="44" max="45" width="34.33203125" customWidth="1"/>
-    <col min="46" max="46" width="21.83203125" customWidth="1"/>
-    <col min="47" max="47" width="29.6640625" customWidth="1"/>
-    <col min="48" max="48" width="28.1640625" customWidth="1"/>
-    <col min="49" max="49" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.6640625" customWidth="1"/>
-    <col min="51" max="51" width="29.6640625" customWidth="1"/>
+    <col min="33" max="35" width="28.1640625" customWidth="1"/>
+    <col min="36" max="36" width="32.1640625" customWidth="1"/>
+    <col min="37" max="37" width="28.1640625" customWidth="1"/>
+    <col min="38" max="44" width="29.6640625" customWidth="1"/>
+    <col min="45" max="46" width="34.33203125" customWidth="1"/>
+    <col min="47" max="47" width="21.83203125" customWidth="1"/>
+    <col min="48" max="48" width="29.6640625" customWidth="1"/>
+    <col min="49" max="49" width="28.1640625" customWidth="1"/>
+    <col min="50" max="50" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.6640625" customWidth="1"/>
+    <col min="52" max="52" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="2" customFormat="1" ht="33" customHeight="1">
+    <row r="1" spans="1:53" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -17751,61 +17754,64 @@
         <v>103</v>
       </c>
       <c r="AI1" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AK1" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="AK1" s="42" t="s">
+      <c r="AL1" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="AL1" s="42" t="s">
+      <c r="AM1" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="AM1" s="42" t="s">
+      <c r="AN1" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="AQ1" s="16" t="s">
+      <c r="AR1" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AS1" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="AS1" s="41" t="s">
+      <c r="AT1" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="AT1" s="17" t="s">
+      <c r="AU1" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="AU1" s="17" t="s">
+      <c r="AV1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AV1" s="16" t="s">
+      <c r="AW1" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="AW1" s="17" t="s">
+      <c r="AX1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="AX1" s="18" t="s">
+      <c r="AY1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="AY1" s="18" t="s">
+      <c r="AZ1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AZ1" s="18" t="s">
+      <c r="BA1" s="18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:53">
       <c r="A2" s="28" t="s">
         <v>13</v>
       </c>
@@ -17896,59 +17902,62 @@
       <c r="AH2">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AI2" s="45">
+      <c r="AI2">
+        <v>0.97222220897674505</v>
+      </c>
+      <c r="AJ2" s="45">
         <v>0.36099999999999999</v>
       </c>
-      <c r="AJ2" s="45">
+      <c r="AK2" s="45">
         <v>0.80555555999999995</v>
       </c>
-      <c r="AK2" s="45">
+      <c r="AL2" s="45">
         <v>0.68229167000000002</v>
-      </c>
-      <c r="AL2">
-        <v>0.97222222222222199</v>
       </c>
       <c r="AM2">
         <v>0.97222222222222199</v>
       </c>
       <c r="AN2">
-        <v>0.86111111111111105</v>
+        <v>0.97222222222222199</v>
       </c>
       <c r="AO2">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AQ2">
+      <c r="AP2">
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="AR2">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>0.75322222222222102</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>0.64583333333333304</v>
       </c>
-      <c r="AT2" s="29">
+      <c r="AU2" s="29">
         <v>1</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>0.81</v>
       </c>
-      <c r="AV2">
-        <v>0.77777779102325395</v>
-      </c>
       <c r="AW2">
+        <v>0.97222220897674505</v>
+      </c>
+      <c r="AX2">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AX2" s="31">
+      <c r="AY2" s="31">
         <v>1</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>0.88900000000000001</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>0.86</v>
       </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:53">
       <c r="A3" s="28" t="s">
         <v>24</v>
       </c>
@@ -18039,59 +18048,62 @@
       <c r="AH3">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AI3" s="45">
+      <c r="AI3">
+        <v>0.80555558204650801</v>
+      </c>
+      <c r="AJ3" s="45">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AJ3" s="45">
+      <c r="AK3" s="45">
         <v>0.63888889000000004</v>
       </c>
-      <c r="AK3" s="45">
+      <c r="AL3" s="45">
         <v>0.56770832999999998</v>
-      </c>
-      <c r="AL3">
-        <v>0.88888888888888795</v>
       </c>
       <c r="AM3">
         <v>0.88888888888888795</v>
       </c>
       <c r="AN3">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="AO3">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>0.91666666666666596</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>0.73483333333333301</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>0.63020833333333304</v>
       </c>
-      <c r="AT3" s="29">
+      <c r="AU3" s="29">
         <v>2</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>0.86</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>0.80555558204650801</v>
       </c>
-      <c r="AW3">
+      <c r="AX3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AX3" s="31">
+      <c r="AY3" s="31">
         <v>2</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>0.86099999999999999</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:53">
       <c r="A4" s="28" t="s">
         <v>29</v>
       </c>
@@ -18185,59 +18197,62 @@
       <c r="AH4">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AI4" s="45">
+      <c r="AI4">
+        <v>0.75</v>
+      </c>
+      <c r="AJ4" s="45">
         <v>0.52800000000000002</v>
       </c>
-      <c r="AJ4" s="45">
+      <c r="AK4" s="45">
         <v>0.69444444000000005</v>
       </c>
-      <c r="AK4" s="45">
+      <c r="AL4" s="45">
         <v>0.54166667000000002</v>
-      </c>
-      <c r="AL4">
-        <v>0.75</v>
       </c>
       <c r="AM4">
         <v>0.75</v>
       </c>
       <c r="AN4">
+        <v>0.75</v>
+      </c>
+      <c r="AO4">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>0.70499999999999996</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>0.4375</v>
       </c>
-      <c r="AT4" s="29">
+      <c r="AU4" s="29">
         <v>3</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>0.72</v>
       </c>
-      <c r="AV4">
-        <v>0.88888889551162698</v>
-      </c>
       <c r="AW4">
+        <v>0.75</v>
+      </c>
+      <c r="AX4">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AX4" s="31">
+      <c r="AY4" s="31">
         <v>3</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>0.75</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>0.69</v>
       </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:53">
       <c r="A5" s="28" t="s">
         <v>34</v>
       </c>
@@ -18328,59 +18343,62 @@
       <c r="AH5">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AI5" s="45">
+      <c r="AI5">
+        <v>0.58333331346511796</v>
+      </c>
+      <c r="AJ5" s="45">
         <v>0.47199999999999998</v>
       </c>
-      <c r="AJ5" s="45">
+      <c r="AK5" s="45">
         <v>0.52777777999999997</v>
       </c>
-      <c r="AK5" s="45">
+      <c r="AL5" s="45">
         <v>0.515625</v>
-      </c>
-      <c r="AL5">
-        <v>0.72222222222222199</v>
       </c>
       <c r="AM5">
         <v>0.72222222222222199</v>
       </c>
       <c r="AN5">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="AO5">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>0.75</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>0.75</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>0.72241666666666604</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>0.515625</v>
       </c>
-      <c r="AT5" s="29">
+      <c r="AU5" s="29">
         <v>4</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>0.86</v>
       </c>
-      <c r="AV5">
-        <v>0.63888889551162698</v>
-      </c>
       <c r="AW5">
+        <v>0.58333331346511796</v>
+      </c>
+      <c r="AX5">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AX5" s="31">
+      <c r="AY5" s="31">
         <v>4</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>0.61</v>
       </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:53">
       <c r="A6" s="28" t="s">
         <v>40</v>
       </c>
@@ -18471,59 +18489,62 @@
       <c r="AH6">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AI6" s="45">
+      <c r="AI6">
+        <v>0.88888889551162698</v>
+      </c>
+      <c r="AJ6" s="45">
         <v>0.38900000000000001</v>
       </c>
-      <c r="AJ6" s="45">
+      <c r="AK6" s="45">
         <v>0.75</v>
       </c>
-      <c r="AK6" s="45">
+      <c r="AL6" s="45">
         <v>0.63541667000000002</v>
-      </c>
-      <c r="AL6">
-        <v>0.94444444444444398</v>
       </c>
       <c r="AM6">
         <v>0.94444444444444398</v>
       </c>
       <c r="AN6">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="AO6">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>0.76666666666666605</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>0.73616666666666597</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>0.59895833333333304</v>
       </c>
-      <c r="AT6" s="29">
+      <c r="AU6" s="29">
         <v>5</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>0.67</v>
       </c>
-      <c r="AV6">
-        <v>0.86111110448837203</v>
-      </c>
       <c r="AW6">
+        <v>0.88888889551162698</v>
+      </c>
+      <c r="AX6">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AX6" s="31">
+      <c r="AY6" s="31">
         <v>5</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>0.88900000000000001</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>0.81</v>
       </c>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:53">
       <c r="A7" s="28" t="s">
         <v>39</v>
       </c>
@@ -18614,59 +18635,62 @@
       <c r="AH7">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AI7" s="45">
+      <c r="AI7">
+        <v>0.77777779102325395</v>
+      </c>
+      <c r="AJ7" s="45">
         <v>0.52800000000000002</v>
       </c>
-      <c r="AJ7" s="45">
+      <c r="AK7" s="45">
         <v>0.75</v>
       </c>
-      <c r="AK7" s="45">
+      <c r="AL7" s="45">
         <v>0.65625</v>
-      </c>
-      <c r="AL7">
-        <v>0.86111111111111105</v>
       </c>
       <c r="AM7">
         <v>0.86111111111111105</v>
       </c>
       <c r="AN7">
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="AO7">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>0.53333333333333299</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>0.727444444444444</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>0.50520833333333304</v>
       </c>
-      <c r="AT7" s="29">
+      <c r="AU7" s="29">
         <v>6</v>
       </c>
-      <c r="AU7">
+      <c r="AV7">
         <v>0.67</v>
       </c>
-      <c r="AV7">
-        <v>0.80555558204650801</v>
-      </c>
       <c r="AW7">
+        <v>0.77777779102325395</v>
+      </c>
+      <c r="AX7">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AX7" s="31">
+      <c r="AY7" s="31">
         <v>6</v>
       </c>
-      <c r="AY7">
+      <c r="AZ7">
         <v>0.86099999999999999</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <v>0.83</v>
       </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:53">
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
@@ -18754,59 +18778,62 @@
       <c r="AH8">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AI8" s="45">
+      <c r="AI8">
+        <v>0.77777779102325395</v>
+      </c>
+      <c r="AJ8" s="45">
         <v>0.69399999999999995</v>
       </c>
-      <c r="AJ8" s="45">
+      <c r="AK8" s="45">
         <v>0.86111110999999996</v>
       </c>
-      <c r="AK8" s="45">
+      <c r="AL8" s="45">
         <v>0.60416667000000002</v>
-      </c>
-      <c r="AL8">
-        <v>0.91666666666666596</v>
       </c>
       <c r="AM8">
         <v>0.91666666666666596</v>
       </c>
       <c r="AN8">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="AO8">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>0.71875</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>0.57291666666666596</v>
       </c>
-      <c r="AT8" s="29">
+      <c r="AU8" s="29">
         <v>7</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <v>0.61</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <v>0.77777779102325395</v>
       </c>
-      <c r="AW8">
+      <c r="AX8">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AX8" s="31">
+      <c r="AY8" s="31">
         <v>7</v>
       </c>
-      <c r="AY8">
+      <c r="AZ8">
         <v>0.83299999999999996</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <v>0.86</v>
       </c>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:53">
       <c r="A9" s="28" t="s">
         <v>46</v>
       </c>
@@ -18897,59 +18924,62 @@
       <c r="AH9">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AI9" s="45">
+      <c r="AI9">
+        <v>0.63888889551162698</v>
+      </c>
+      <c r="AJ9" s="45">
         <v>0.44400000000000001</v>
       </c>
-      <c r="AJ9" s="45">
+      <c r="AK9" s="45">
         <v>0.75</v>
       </c>
-      <c r="AK9" s="45">
+      <c r="AL9" s="45">
         <v>0.578125</v>
-      </c>
-      <c r="AL9">
-        <v>0.55555555555555503</v>
       </c>
       <c r="AM9">
         <v>0.55555555555555503</v>
       </c>
       <c r="AN9">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="AO9">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>0.71830555555555498</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>0.54166666666666596</v>
       </c>
-      <c r="AT9" s="29">
+      <c r="AU9" s="29">
         <v>8</v>
       </c>
-      <c r="AU9">
+      <c r="AV9">
         <v>0.86</v>
       </c>
-      <c r="AV9">
-        <v>0.5</v>
-      </c>
       <c r="AW9">
+        <v>0.63888889551162698</v>
+      </c>
+      <c r="AX9">
         <v>0.55555555555555503</v>
       </c>
-      <c r="AX9" s="31">
+      <c r="AY9" s="31">
         <v>8</v>
       </c>
-      <c r="AY9">
+      <c r="AZ9">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AZ9">
+      <c r="BA9">
         <v>0.64</v>
       </c>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:53">
       <c r="A10" s="28" t="s">
         <v>49</v>
       </c>
@@ -19037,59 +19067,62 @@
       <c r="AH10">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AI10" s="45">
+      <c r="AI10">
+        <v>0.69444441795349099</v>
+      </c>
+      <c r="AJ10" s="45">
         <v>0.47199999999999998</v>
       </c>
-      <c r="AJ10" s="45">
+      <c r="AK10" s="45">
         <v>0.63888889000000004</v>
       </c>
-      <c r="AK10" s="45">
+      <c r="AL10" s="45">
         <v>0.546875</v>
-      </c>
-      <c r="AL10">
-        <v>0.75</v>
       </c>
       <c r="AM10">
         <v>0.75</v>
       </c>
       <c r="AN10">
+        <v>0.75</v>
+      </c>
+      <c r="AO10">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>0.71775</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>0.52083333333333304</v>
       </c>
-      <c r="AT10" s="29">
+      <c r="AU10" s="29">
         <v>9</v>
       </c>
-      <c r="AU10">
+      <c r="AV10">
         <v>0.94</v>
       </c>
-      <c r="AV10">
-        <v>0.72222220897674505</v>
-      </c>
       <c r="AW10">
+        <v>0.69444441795349099</v>
+      </c>
+      <c r="AX10">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AX10" s="31">
+      <c r="AY10" s="31">
         <v>9</v>
       </c>
-      <c r="AY10">
+      <c r="AZ10">
         <v>0.69399999999999995</v>
       </c>
-      <c r="AZ10">
+      <c r="BA10">
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:53">
       <c r="A11" s="28" t="s">
         <v>50</v>
       </c>
@@ -19180,59 +19213,62 @@
       <c r="AH11">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AI11" s="45">
+      <c r="AI11">
+        <v>0.69444441795349099</v>
+      </c>
+      <c r="AJ11" s="45">
         <v>0.47199999999999998</v>
       </c>
-      <c r="AJ11" s="45">
+      <c r="AK11" s="45">
         <v>0.69444444000000005</v>
       </c>
-      <c r="AK11" s="45">
+      <c r="AL11" s="45">
         <v>0.671875</v>
-      </c>
-      <c r="AL11">
-        <v>0.75</v>
       </c>
       <c r="AM11">
         <v>0.75</v>
       </c>
       <c r="AN11">
+        <v>0.75</v>
+      </c>
+      <c r="AO11">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>0.75</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>0.75</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <v>0.72411111111111104</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <v>0.625</v>
       </c>
-      <c r="AT11" s="29">
+      <c r="AU11" s="29">
         <v>10</v>
       </c>
-      <c r="AU11">
+      <c r="AV11">
         <v>0.69</v>
       </c>
-      <c r="AV11">
-        <v>0.75</v>
-      </c>
       <c r="AW11">
+        <v>0.69444441795349099</v>
+      </c>
+      <c r="AX11">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AX11" s="31">
+      <c r="AY11" s="31">
         <v>10</v>
       </c>
-      <c r="AY11">
+      <c r="AZ11">
         <v>0.69399999999999995</v>
       </c>
-      <c r="AZ11">
+      <c r="BA11">
         <v>0.69</v>
       </c>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:53">
       <c r="A12" s="28" t="s">
         <v>54</v>
       </c>
@@ -19323,53 +19359,56 @@
       <c r="AH12">
         <v>0.73333333333333295</v>
       </c>
-      <c r="AI12" s="45">
+      <c r="AI12">
+        <v>0.73333334922790505</v>
+      </c>
+      <c r="AJ12" s="45">
         <v>0.433</v>
       </c>
-      <c r="AJ12" s="45">
+      <c r="AK12" s="45">
         <v>0.56666667000000004</v>
       </c>
-      <c r="AK12" s="45">
+      <c r="AL12" s="45">
         <v>0.53846154000000002</v>
-      </c>
-      <c r="AL12">
-        <v>0.7</v>
       </c>
       <c r="AM12">
         <v>0.7</v>
       </c>
       <c r="AN12">
+        <v>0.7</v>
+      </c>
+      <c r="AO12">
         <v>0.73333333333333295</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>0.76666666666666605</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <v>0.71947222222222196</v>
       </c>
-      <c r="AS12">
+      <c r="AT12">
         <v>0.50641025641025605</v>
       </c>
-      <c r="AT12" s="29">
+      <c r="AU12" s="29">
         <v>11</v>
       </c>
-      <c r="AU12">
+      <c r="AV12">
         <v>0.72</v>
       </c>
-      <c r="AV12">
+      <c r="AW12">
         <v>0.73333334922790505</v>
       </c>
-      <c r="AW12">
+      <c r="AX12">
         <v>0.6</v>
       </c>
-      <c r="AX12">
+      <c r="AY12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:53">
       <c r="A13" s="28" t="s">
         <v>57</v>
       </c>
@@ -19457,47 +19496,50 @@
       <c r="AH13">
         <v>0.5</v>
       </c>
-      <c r="AI13" s="45">
+      <c r="AI13">
+        <v>0.77777779102325395</v>
+      </c>
+      <c r="AJ13" s="45">
         <v>0.5</v>
       </c>
-      <c r="AJ13" s="45">
+      <c r="AK13" s="45">
         <v>0.53333333000000005</v>
       </c>
-      <c r="AK13" s="45">
+      <c r="AL13" s="45">
         <v>0.57692308000000003</v>
-      </c>
-      <c r="AL13">
-        <v>0.96666666666666601</v>
       </c>
       <c r="AM13">
         <v>0.96666666666666601</v>
       </c>
       <c r="AN13">
+        <v>0.96666666666666601</v>
+      </c>
+      <c r="AO13">
         <v>0.53333333333333299</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>0.56666666666666599</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>0.56666666666666599</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>0.71983333333333299</v>
       </c>
-      <c r="AS13">
+      <c r="AT13">
         <v>0.52564102564102499</v>
       </c>
-      <c r="AT13">
+      <c r="AU13">
         <v>12</v>
       </c>
-      <c r="AW13">
+      <c r="AX13">
         <v>-1</v>
       </c>
-      <c r="AX13">
+      <c r="AY13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:53">
       <c r="A14" s="28" t="s">
         <v>65</v>
       </c>
@@ -19588,17 +19630,17 @@
       <c r="AH14">
         <v>0.91666666666666596</v>
       </c>
-      <c r="AI14" s="45">
+      <c r="AI14">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="AJ14" s="45">
         <v>0.52800000000000002</v>
       </c>
-      <c r="AJ14" s="45">
+      <c r="AK14" s="45">
         <v>0.66666667000000002</v>
       </c>
-      <c r="AK14" s="45">
+      <c r="AL14" s="45">
         <v>0.6875</v>
-      </c>
-      <c r="AL14">
-        <v>0.88888888888888795</v>
       </c>
       <c r="AM14">
         <v>0.88888888888888795</v>
@@ -19609,32 +19651,35 @@
       <c r="AO14">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AQ14">
+      <c r="AP14">
         <v>0.88888888888888795</v>
       </c>
       <c r="AR14">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="AS14">
         <v>0.70574999999999999</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <v>0.59895833333333304</v>
       </c>
-      <c r="AT14" s="29">
+      <c r="AU14" s="29">
         <v>13</v>
       </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>0.89</v>
       </c>
-      <c r="AV14">
+      <c r="AW14">
         <v>0.77777779102325395</v>
       </c>
-      <c r="AW14">
+      <c r="AX14">
         <v>0.91666666666666596</v>
       </c>
-      <c r="AX14">
+      <c r="AY14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:53">
       <c r="A15" s="28" t="s">
         <v>69</v>
       </c>
@@ -19728,53 +19773,56 @@
       <c r="AH15">
         <v>0.76666666666666605</v>
       </c>
-      <c r="AI15" s="45">
+      <c r="AI15">
+        <v>0.61111110448837203</v>
+      </c>
+      <c r="AJ15" s="45">
         <v>0.56699999999999995</v>
       </c>
-      <c r="AJ15" s="45">
+      <c r="AK15" s="45">
         <v>0.7</v>
       </c>
-      <c r="AK15" s="45">
+      <c r="AL15" s="45">
         <v>0.64743589999999995</v>
-      </c>
-      <c r="AL15">
-        <v>0.7</v>
       </c>
       <c r="AM15">
         <v>0.7</v>
       </c>
       <c r="AN15">
+        <v>0.7</v>
+      </c>
+      <c r="AO15">
         <v>0.73333333333333295</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>0.73333333333333295</v>
       </c>
-      <c r="AR15">
+      <c r="AS15">
         <v>0.70908333333333295</v>
       </c>
-      <c r="AS15">
+      <c r="AT15">
         <v>0.55128205128205099</v>
       </c>
-      <c r="AT15" s="29">
+      <c r="AU15" s="29">
         <v>14</v>
       </c>
-      <c r="AU15">
+      <c r="AV15">
         <v>0.75</v>
       </c>
-      <c r="AV15">
-        <v>0.73333334922790505</v>
-      </c>
       <c r="AW15">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="AX15">
         <v>0.73333333333333295</v>
       </c>
-      <c r="AX15">
+      <c r="AY15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:53">
       <c r="A16" s="32" t="s">
         <v>75</v>
       </c>
@@ -19865,59 +19913,62 @@
       <c r="AH16">
         <v>0.55555555555555503</v>
       </c>
-      <c r="AI16" s="45">
+      <c r="AI16">
+        <v>0.80555558204650801</v>
+      </c>
+      <c r="AJ16" s="45">
         <v>0.41699999999999998</v>
       </c>
-      <c r="AJ16" s="45">
+      <c r="AK16" s="45">
         <v>0.69444444000000005</v>
       </c>
-      <c r="AK16" s="45">
+      <c r="AL16" s="45">
         <v>0.53125</v>
-      </c>
-      <c r="AL16">
-        <v>0.47222222222222199</v>
       </c>
       <c r="AM16">
         <v>0.47222222222222199</v>
       </c>
       <c r="AN16">
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="AO16">
         <v>0.5</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>0.70833333333333304</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>0.5</v>
       </c>
-      <c r="AR16">
+      <c r="AS16">
         <v>0.72502777777777705</v>
       </c>
-      <c r="AS16">
+      <c r="AT16">
         <v>0.47395833333333298</v>
       </c>
-      <c r="AT16" s="29">
+      <c r="AU16" s="29">
         <v>15</v>
       </c>
-      <c r="AU16">
+      <c r="AV16">
         <v>0.81</v>
       </c>
-      <c r="AV16">
+      <c r="AW16">
         <v>0.61111110448837203</v>
       </c>
-      <c r="AW16">
+      <c r="AX16">
         <v>0.44444444444444398</v>
       </c>
-      <c r="AX16" s="31">
+      <c r="AY16" s="31">
         <v>15</v>
       </c>
-      <c r="AY16">
+      <c r="AZ16">
         <v>0.69399999999999995</v>
       </c>
-      <c r="AZ16">
+      <c r="BA16">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:53">
       <c r="A17" s="28" t="s">
         <v>80</v>
       </c>
@@ -20005,59 +20056,62 @@
       <c r="AH17">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AI17" s="45">
+      <c r="AI17">
+        <v>0.83333331346511796</v>
+      </c>
+      <c r="AJ17" s="45">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AJ17" s="45">
+      <c r="AK17" s="45">
         <v>0.66666667000000002</v>
       </c>
-      <c r="AK17" s="45">
+      <c r="AL17" s="45">
         <v>0.49479167000000002</v>
-      </c>
-      <c r="AL17">
-        <v>0.63888888888888795</v>
       </c>
       <c r="AM17">
         <v>0.63888888888888795</v>
       </c>
       <c r="AN17">
+        <v>0.63888888888888795</v>
+      </c>
+      <c r="AO17">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <v>0.71730555555555497</v>
       </c>
-      <c r="AS17">
+      <c r="AT17">
         <v>0.52604166666666596</v>
       </c>
-      <c r="AT17" s="29">
+      <c r="AU17" s="29">
         <v>16</v>
       </c>
-      <c r="AU17">
+      <c r="AV17">
         <v>0.78</v>
       </c>
-      <c r="AV17">
-        <v>0.63888889551162698</v>
-      </c>
       <c r="AW17">
+        <v>0.80555558204650801</v>
+      </c>
+      <c r="AX17">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AX17" s="31">
+      <c r="AY17" s="31">
         <v>16</v>
       </c>
-      <c r="AY17">
+      <c r="AZ17">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AZ17">
+      <c r="BA17">
         <v>0.72</v>
       </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:53">
       <c r="A18" s="28" t="s">
         <v>84</v>
       </c>
@@ -20145,59 +20199,62 @@
       <c r="AH18">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AI18" s="45">
+      <c r="AI18">
+        <v>0.66666668653488104</v>
+      </c>
+      <c r="AJ18" s="45">
         <v>0.61099999999999999</v>
       </c>
-      <c r="AJ18" s="45">
+      <c r="AK18" s="45">
         <v>0.69444444000000005</v>
       </c>
-      <c r="AK18" s="45">
+      <c r="AL18" s="45">
         <v>0.5</v>
-      </c>
-      <c r="AL18">
-        <v>0.77777777777777701</v>
       </c>
       <c r="AM18">
         <v>0.77777777777777701</v>
       </c>
       <c r="AN18">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="AO18">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AR18">
+      <c r="AS18">
         <v>0.75233333333333396</v>
       </c>
-      <c r="AS18">
+      <c r="AT18">
         <v>0.54166666666666596</v>
       </c>
-      <c r="AT18" s="29">
+      <c r="AU18" s="29">
         <v>17</v>
       </c>
-      <c r="AU18">
+      <c r="AV18">
         <v>0.77</v>
       </c>
-      <c r="AV18">
-        <v>0.80555558204650801</v>
-      </c>
       <c r="AW18">
+        <v>0.83333331346511796</v>
+      </c>
+      <c r="AX18">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AX18" s="31">
+      <c r="AY18" s="31">
         <v>17</v>
       </c>
-      <c r="AY18">
+      <c r="AZ18">
         <v>0.66700000000000004</v>
       </c>
-      <c r="AZ18">
+      <c r="BA18">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:53">
       <c r="A19" s="28" t="s">
         <v>85</v>
       </c>
@@ -20288,59 +20345,62 @@
       <c r="AH19">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AI19" s="45">
+      <c r="AI19">
+        <v>0.55555558204650801</v>
+      </c>
+      <c r="AJ19" s="45">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AJ19" s="45">
+      <c r="AK19" s="45">
         <v>0.61111110999999996</v>
       </c>
-      <c r="AK19" s="45">
+      <c r="AL19" s="45">
         <v>0.59375</v>
-      </c>
-      <c r="AL19">
-        <v>0.58333333333333304</v>
       </c>
       <c r="AM19">
         <v>0.58333333333333304</v>
       </c>
       <c r="AN19">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="AO19">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <v>0.52777777777777701</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AR19">
+      <c r="AS19">
         <v>0.727138888888889</v>
       </c>
-      <c r="AS19">
+      <c r="AT19">
         <v>0.54166666666666596</v>
       </c>
-      <c r="AT19" s="29">
+      <c r="AU19" s="29">
         <v>18</v>
       </c>
-      <c r="AU19">
+      <c r="AV19">
         <v>0.87</v>
       </c>
-      <c r="AV19">
-        <v>0.61111110448837203</v>
-      </c>
       <c r="AW19">
+        <v>0.66666668653488104</v>
+      </c>
+      <c r="AX19">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AX19" s="31">
+      <c r="AY19" s="31">
         <v>18</v>
       </c>
-      <c r="AY19">
+      <c r="AZ19">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AZ19">
+      <c r="BA19">
         <v>0.61</v>
       </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:53">
       <c r="A20" s="28" t="s">
         <v>88</v>
       </c>
@@ -20434,47 +20494,50 @@
       <c r="AH20">
         <v>0.75</v>
       </c>
-      <c r="AI20" s="45">
+      <c r="AI20">
+        <v>0.66666668653488104</v>
+      </c>
+      <c r="AJ20" s="45">
         <v>0.625</v>
       </c>
-      <c r="AJ20" s="45">
+      <c r="AK20" s="45">
         <v>0.58333332999999998</v>
       </c>
-      <c r="AK20" s="45">
+      <c r="AL20" s="45">
         <v>0.515625</v>
-      </c>
-      <c r="AL20">
-        <v>0.70833333333333304</v>
       </c>
       <c r="AM20">
         <v>0.70833333333333304</v>
       </c>
       <c r="AN20">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="AO20">
         <v>0.79166666666666596</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <v>0.70833333333333304</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>0.58333333333333304</v>
       </c>
-      <c r="AR20">
+      <c r="AS20">
         <v>0.72699999999999898</v>
       </c>
-      <c r="AS20">
+      <c r="AT20">
         <v>0.5078125</v>
       </c>
-      <c r="AT20">
+      <c r="AU20">
         <v>19</v>
       </c>
-      <c r="AW20">
+      <c r="AX20">
         <v>-1</v>
       </c>
-      <c r="AX20">
+      <c r="AY20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:53">
       <c r="A21" s="28" t="s">
         <v>91</v>
       </c>
@@ -20562,17 +20625,17 @@
       <c r="AH21">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AI21" s="45">
+      <c r="AI21">
+        <v>0.61111110448837203</v>
+      </c>
+      <c r="AJ21" s="45">
         <v>0.58299999999999996</v>
       </c>
-      <c r="AJ21" s="45">
+      <c r="AK21" s="45">
         <v>0.52777777999999997</v>
       </c>
-      <c r="AK21" s="45">
+      <c r="AL21" s="45">
         <v>1</v>
-      </c>
-      <c r="AL21">
-        <v>0.61111111111111105</v>
       </c>
       <c r="AM21">
         <v>0.61111111111111105</v>
@@ -20583,38 +20646,41 @@
       <c r="AO21">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AQ21">
+      <c r="AP21">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="AR21">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AR21">
+      <c r="AS21">
         <v>0.68838888888888805</v>
       </c>
-      <c r="AS21">
+      <c r="AT21">
         <v>0.53125</v>
       </c>
-      <c r="AT21" s="29">
+      <c r="AU21" s="29">
         <v>20</v>
       </c>
-      <c r="AU21">
+      <c r="AV21">
         <v>0.89</v>
       </c>
-      <c r="AV21">
-        <v>0.52777779102325395</v>
-      </c>
       <c r="AW21">
+        <v>0.55555558204650801</v>
+      </c>
+      <c r="AX21">
         <v>0.5</v>
       </c>
-      <c r="AX21" s="31">
+      <c r="AY21" s="31">
         <v>20</v>
       </c>
-      <c r="AY21">
+      <c r="AZ21">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AZ21">
+      <c r="BA21">
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:53">
       <c r="A22" s="27" t="s">
         <v>93</v>
       </c>
@@ -20705,59 +20771,62 @@
       <c r="AH22">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AI22" s="45">
+      <c r="AI22">
+        <v>0.61111110448837203</v>
+      </c>
+      <c r="AJ22" s="45">
         <v>0.36099999999999999</v>
       </c>
-      <c r="AJ22" s="45">
+      <c r="AK22" s="45">
         <v>0.63888889000000004</v>
       </c>
-      <c r="AK22" s="45">
+      <c r="AL22" s="45">
         <v>1</v>
-      </c>
-      <c r="AL22">
-        <v>0.77777777777777701</v>
       </c>
       <c r="AM22">
         <v>0.77777777777777701</v>
       </c>
       <c r="AN22">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="AO22">
         <v>0.75</v>
       </c>
-      <c r="AO22">
+      <c r="AP22">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AQ22">
+      <c r="AR22">
         <v>0.75</v>
       </c>
-      <c r="AR22">
+      <c r="AS22">
         <v>0.71438888888888796</v>
       </c>
-      <c r="AS22">
+      <c r="AT22">
         <v>0.578125</v>
       </c>
-      <c r="AT22" s="29">
+      <c r="AU22" s="29">
         <v>21</v>
       </c>
-      <c r="AU22">
+      <c r="AV22">
         <v>0.86</v>
       </c>
-      <c r="AV22">
-        <v>0.55555558204650801</v>
-      </c>
       <c r="AW22">
+        <v>0.66666668653488104</v>
+      </c>
+      <c r="AX22">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AX22" s="31">
+      <c r="AY22" s="31">
         <v>21</v>
       </c>
-      <c r="AY22">
+      <c r="AZ22">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AZ22">
+      <c r="BA22">
         <v>0.69</v>
       </c>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:53">
       <c r="A23" s="27" t="s">
         <v>94</v>
       </c>
@@ -20848,59 +20917,62 @@
       <c r="AH23">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AI23" s="45">
+      <c r="AI23">
+        <v>0.69444441795349099</v>
+      </c>
+      <c r="AJ23" s="45">
         <v>0.47199999999999998</v>
       </c>
-      <c r="AJ23" s="45">
+      <c r="AK23" s="45">
         <v>0.63888889000000004</v>
       </c>
-      <c r="AK23" s="45">
+      <c r="AL23" s="45">
         <v>1</v>
-      </c>
-      <c r="AL23">
-        <v>0.72222222222222199</v>
       </c>
       <c r="AM23">
         <v>0.72222222222222199</v>
       </c>
       <c r="AN23">
-        <v>0.63888888888888795</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="AO23">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AQ23">
+      <c r="AP23">
+        <v>0.63888888888888795</v>
+      </c>
+      <c r="AR23">
         <v>0.58333333333333304</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>0.73797222222222203</v>
       </c>
-      <c r="AS23">
+      <c r="AT23">
         <v>0.63541666666666596</v>
       </c>
-      <c r="AT23" s="29">
+      <c r="AU23" s="29">
         <v>22</v>
       </c>
-      <c r="AU23">
+      <c r="AV23">
         <v>0.69</v>
       </c>
-      <c r="AV23">
+      <c r="AW23">
+        <v>0.61111110448837203</v>
+      </c>
+      <c r="AX23">
         <v>0.5</v>
       </c>
-      <c r="AW23">
-        <v>0.5</v>
-      </c>
-      <c r="AX23" s="31">
+      <c r="AY23" s="31">
         <v>22</v>
       </c>
-      <c r="AY23">
+      <c r="AZ23">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AZ23">
+      <c r="BA23">
         <v>0.92</v>
       </c>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:53">
       <c r="A24" s="27" t="s">
         <v>95</v>
       </c>
@@ -20988,59 +21060,62 @@
       <c r="AH24">
         <v>0.58333333333333304</v>
       </c>
-      <c r="AI24" s="45">
+      <c r="AI24">
+        <v>0.83333331346511796</v>
+      </c>
+      <c r="AJ24" s="45">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AJ24" s="45">
+      <c r="AK24" s="45">
         <v>0.66666667000000002</v>
       </c>
-      <c r="AK24" s="45">
+      <c r="AL24" s="45">
         <v>1</v>
-      </c>
-      <c r="AL24">
-        <v>0.58333333333333304</v>
       </c>
       <c r="AM24">
         <v>0.58333333333333304</v>
       </c>
       <c r="AN24">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="AO24">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AQ24">
+      <c r="AR24">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AR24">
+      <c r="AS24">
         <v>0.69280555555555501</v>
       </c>
-      <c r="AS24">
+      <c r="AT24">
         <v>0.52604166666666596</v>
       </c>
-      <c r="AT24" s="29">
+      <c r="AU24" s="29">
         <v>23</v>
       </c>
-      <c r="AU24">
+      <c r="AV24">
         <v>0.67</v>
       </c>
-      <c r="AV24">
-        <v>0.52777779102325395</v>
-      </c>
       <c r="AW24">
+        <v>0.61111110448837203</v>
+      </c>
+      <c r="AX24">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AX24" s="31">
+      <c r="AY24" s="31">
         <v>23</v>
       </c>
-      <c r="AY24">
+      <c r="AZ24">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AZ24">
+      <c r="BA24">
         <v>0.47</v>
       </c>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:53">
       <c r="A25" s="22" t="s">
         <v>104</v>
       </c>
@@ -21131,59 +21206,62 @@
       <c r="AH25">
         <v>0.75</v>
       </c>
-      <c r="AI25" s="45">
+      <c r="AI25">
+        <v>0.61111110448837203</v>
+      </c>
+      <c r="AJ25" s="45">
         <v>0.47199999999999998</v>
       </c>
-      <c r="AJ25" s="45">
+      <c r="AK25" s="45">
         <v>0.72222222000000003</v>
       </c>
-      <c r="AK25" s="45">
+      <c r="AL25" s="45">
         <v>0.66666667000000002</v>
-      </c>
-      <c r="AL25">
-        <v>0.80555555555555503</v>
       </c>
       <c r="AM25">
         <v>0.80555555555555503</v>
       </c>
       <c r="AN25">
-        <v>0.75</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="AO25">
         <v>0.75</v>
       </c>
-      <c r="AQ25">
+      <c r="AP25">
+        <v>0.75</v>
+      </c>
+      <c r="AR25">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AR25">
+      <c r="AS25">
         <v>0.72838888888888897</v>
       </c>
-      <c r="AS25">
+      <c r="AT25">
         <v>0.671875</v>
       </c>
-      <c r="AT25" s="29">
+      <c r="AU25" s="29">
         <v>24</v>
       </c>
-      <c r="AU25">
+      <c r="AV25">
         <v>0.86</v>
       </c>
-      <c r="AV25">
-        <v>0.77777779102325395</v>
-      </c>
       <c r="AW25">
+        <v>0.69444441795349099</v>
+      </c>
+      <c r="AX25">
         <v>0.75</v>
       </c>
-      <c r="AX25" s="31">
+      <c r="AY25" s="31">
         <v>24</v>
       </c>
-      <c r="AY25">
+      <c r="AZ25">
         <v>0.66700000000000004</v>
       </c>
-      <c r="AZ25">
+      <c r="BA25">
         <v>0.64</v>
       </c>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:53">
       <c r="A26" s="22" t="s">
         <v>105</v>
       </c>
@@ -21277,59 +21355,62 @@
       <c r="AH26">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AI26" s="45">
+      <c r="AI26">
+        <v>0.75</v>
+      </c>
+      <c r="AJ26" s="45">
         <v>0.61099999999999999</v>
       </c>
-      <c r="AJ26" s="45">
+      <c r="AK26" s="45">
         <v>0.66666667000000002</v>
       </c>
-      <c r="AK26" s="45">
+      <c r="AL26" s="45">
         <v>0.625</v>
-      </c>
-      <c r="AL26">
-        <v>0.75</v>
       </c>
       <c r="AM26">
         <v>0.75</v>
       </c>
       <c r="AN26">
+        <v>0.75</v>
+      </c>
+      <c r="AO26">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AO26">
+      <c r="AP26">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AQ26">
+      <c r="AR26">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AR26">
+      <c r="AS26">
         <v>0.72422222222222199</v>
       </c>
-      <c r="AS26">
+      <c r="AT26">
         <v>0.55729166666666596</v>
       </c>
-      <c r="AT26" s="29">
+      <c r="AU26" s="29">
         <v>25</v>
       </c>
-      <c r="AU26">
+      <c r="AV26">
         <v>0.89</v>
       </c>
-      <c r="AV26">
-        <v>0.86111110448837203</v>
-      </c>
       <c r="AW26">
+        <v>0.83333331346511796</v>
+      </c>
+      <c r="AX26">
         <v>0.75</v>
       </c>
-      <c r="AX26" s="31">
+      <c r="AY26" s="31">
         <v>25</v>
       </c>
-      <c r="AY26">
+      <c r="AZ26">
         <v>0.88900000000000001</v>
       </c>
-      <c r="AZ26">
+      <c r="BA26">
         <v>0.64</v>
       </c>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:53">
       <c r="A27" s="22" t="s">
         <v>109</v>
       </c>
@@ -21420,59 +21501,62 @@
       <c r="AH27">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AI27" s="45">
+      <c r="AI27">
+        <v>0.55555558204650801</v>
+      </c>
+      <c r="AJ27" s="45">
         <v>0.52800000000000002</v>
       </c>
-      <c r="AJ27" s="45">
+      <c r="AK27" s="45">
         <v>0.66666667000000002</v>
       </c>
-      <c r="AK27" s="45">
+      <c r="AL27" s="45">
         <v>0.52604167000000002</v>
-      </c>
-      <c r="AL27">
-        <v>0.63888888888888795</v>
       </c>
       <c r="AM27">
         <v>0.63888888888888795</v>
       </c>
       <c r="AN27">
+        <v>0.63888888888888795</v>
+      </c>
+      <c r="AO27">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AO27">
+      <c r="AP27">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AQ27">
+      <c r="AR27">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AR27">
+      <c r="AS27">
         <v>0.73199999999999998</v>
       </c>
-      <c r="AS27">
+      <c r="AT27">
         <v>0.48958333333333298</v>
       </c>
-      <c r="AT27" s="29">
+      <c r="AU27" s="29">
         <v>26</v>
       </c>
-      <c r="AU27">
+      <c r="AV27">
         <v>0.86</v>
       </c>
-      <c r="AV27">
-        <v>0.72222220897674505</v>
-      </c>
       <c r="AW27">
+        <v>0.61111110448837203</v>
+      </c>
+      <c r="AX27">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AX27" s="31">
+      <c r="AY27" s="31">
         <v>26</v>
       </c>
-      <c r="AY27">
+      <c r="AZ27">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AZ27">
+      <c r="BA27">
         <v>0.86</v>
       </c>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:53">
       <c r="A28" s="22" t="s">
         <v>113</v>
       </c>
@@ -21560,59 +21644,62 @@
       <c r="AH28">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AI28" s="45">
+      <c r="AI28">
+        <v>0.58333331346511796</v>
+      </c>
+      <c r="AJ28" s="45">
         <v>0.61099999999999999</v>
       </c>
-      <c r="AJ28" s="45">
+      <c r="AK28" s="45">
         <v>0.72222222000000003</v>
       </c>
-      <c r="AK28" s="45">
+      <c r="AL28" s="45">
         <v>0.59375</v>
-      </c>
-      <c r="AL28">
-        <v>0.88888888888888795</v>
       </c>
       <c r="AM28">
         <v>0.88888888888888795</v>
       </c>
       <c r="AN28">
-        <v>0.80555555555555503</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="AO28">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AQ28">
+      <c r="AP28">
+        <v>0.80555555555555503</v>
+      </c>
+      <c r="AR28">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AR28">
+      <c r="AS28">
         <v>0.72161111111111098</v>
       </c>
-      <c r="AS28">
+      <c r="AT28">
         <v>0.55729166666666596</v>
       </c>
-      <c r="AT28" s="29">
+      <c r="AU28" s="29">
         <v>27</v>
       </c>
-      <c r="AU28">
+      <c r="AV28">
         <v>0.69</v>
       </c>
-      <c r="AV28">
-        <v>0.77777779102325395</v>
-      </c>
       <c r="AW28">
+        <v>0.75</v>
+      </c>
+      <c r="AX28">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AX28" s="31">
+      <c r="AY28" s="31">
         <v>27</v>
       </c>
-      <c r="AY28">
+      <c r="AZ28">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AZ28">
+      <c r="BA28">
         <v>0.86</v>
       </c>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:53">
       <c r="A29" s="22" t="s">
         <v>115</v>
       </c>
@@ -21703,59 +21790,62 @@
       <c r="AH29">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AI29" s="45">
+      <c r="AI29">
+        <v>0.77777779102325395</v>
+      </c>
+      <c r="AJ29" s="45">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AJ29" s="45">
+      <c r="AK29" s="45">
         <v>0.63888889000000004</v>
       </c>
-      <c r="AK29" s="45">
+      <c r="AL29" s="45">
         <v>0.58333332999999998</v>
-      </c>
-      <c r="AL29">
-        <v>0.58333333333333304</v>
       </c>
       <c r="AM29">
         <v>0.58333333333333304</v>
       </c>
       <c r="AN29">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="AO29">
         <v>0.52777777777777701</v>
       </c>
-      <c r="AO29">
+      <c r="AP29">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AQ29">
+      <c r="AR29">
         <v>0.5</v>
       </c>
-      <c r="AR29">
+      <c r="AS29">
         <v>0.71966666666666601</v>
       </c>
-      <c r="AS29">
+      <c r="AT29">
         <v>0.53125</v>
       </c>
-      <c r="AT29" s="29">
+      <c r="AU29" s="29">
         <v>28</v>
       </c>
-      <c r="AU29">
+      <c r="AV29">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AV29">
-        <v>0.63888889551162698</v>
-      </c>
       <c r="AW29">
+        <v>0.55555558204650801</v>
+      </c>
+      <c r="AX29">
         <v>0.58333333333333304</v>
       </c>
-      <c r="AX29" s="31">
+      <c r="AY29" s="31">
         <v>28</v>
       </c>
-      <c r="AY29">
+      <c r="AZ29">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AZ29">
+      <c r="BA29">
         <v>0.64</v>
       </c>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:53">
       <c r="A30" s="22" t="s">
         <v>117</v>
       </c>
@@ -21846,59 +21936,62 @@
       <c r="AH30">
         <v>0.75</v>
       </c>
-      <c r="AI30" s="45">
+      <c r="AI30">
+        <v>0.86111110448837203</v>
+      </c>
+      <c r="AJ30" s="45">
         <v>0.41699999999999998</v>
       </c>
-      <c r="AJ30" s="45">
+      <c r="AK30" s="45">
         <v>0.63888889000000004</v>
       </c>
-      <c r="AK30" s="45">
+      <c r="AL30" s="45">
         <v>0.578125</v>
-      </c>
-      <c r="AL30">
-        <v>0.61111111111111105</v>
       </c>
       <c r="AM30">
         <v>0.61111111111111105</v>
       </c>
       <c r="AN30">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="AO30">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AO30">
+      <c r="AP30">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AQ30">
+      <c r="AR30">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AR30">
+      <c r="AS30">
         <v>0.71508333333333296</v>
       </c>
-      <c r="AS30">
+      <c r="AT30">
         <v>0.55208333333333304</v>
       </c>
-      <c r="AT30" s="29">
+      <c r="AU30" s="29">
         <v>29</v>
       </c>
-      <c r="AU30">
+      <c r="AV30">
         <v>0.72</v>
       </c>
-      <c r="AV30">
+      <c r="AW30">
         <v>0.58333331346511796</v>
       </c>
-      <c r="AW30">
+      <c r="AX30">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AX30" s="31">
+      <c r="AY30" s="31">
         <v>29</v>
       </c>
-      <c r="AY30">
+      <c r="AZ30">
         <v>0.91700000000000004</v>
       </c>
-      <c r="AZ30">
+      <c r="BA30">
         <v>0.72</v>
       </c>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:53">
       <c r="A31" s="22" t="s">
         <v>119</v>
       </c>
@@ -21989,17 +22082,17 @@
       <c r="AH31">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AI31" s="45">
+      <c r="AI31">
+        <v>0.88888889551162698</v>
+      </c>
+      <c r="AJ31" s="45">
         <v>0.44400000000000001</v>
       </c>
-      <c r="AJ31" s="45">
+      <c r="AK31" s="45">
         <v>0.58333332999999998</v>
       </c>
-      <c r="AK31" s="45">
+      <c r="AL31" s="45">
         <v>0.61979167000000002</v>
-      </c>
-      <c r="AL31">
-        <v>0.66666666666666596</v>
       </c>
       <c r="AM31">
         <v>0.66666666666666596</v>
@@ -22008,40 +22101,43 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="AO31">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="AP31">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AQ31">
+      <c r="AR31">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AR31">
+      <c r="AS31">
         <v>0.71163888888888804</v>
       </c>
-      <c r="AS31">
+      <c r="AT31">
         <v>0.58333333333333304</v>
       </c>
-      <c r="AT31" s="29">
+      <c r="AU31" s="29">
         <v>30</v>
       </c>
-      <c r="AU31">
+      <c r="AV31">
         <v>0.73</v>
       </c>
-      <c r="AV31">
-        <v>0.83333331346511796</v>
-      </c>
       <c r="AW31">
+        <v>0.77777779102325395</v>
+      </c>
+      <c r="AX31">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AX31" s="31">
+      <c r="AY31" s="31">
         <v>30</v>
       </c>
-      <c r="AY31">
+      <c r="AZ31">
         <v>0.86099999999999999</v>
       </c>
-      <c r="AZ31">
+      <c r="BA31">
         <v>0.61</v>
       </c>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:53">
       <c r="A32" s="22" t="s">
         <v>120</v>
       </c>
@@ -22129,59 +22225,62 @@
       <c r="AH32">
         <v>0.91666666666666596</v>
       </c>
-      <c r="AI32" s="45">
+      <c r="AI32">
+        <v>0.58333331346511796</v>
+      </c>
+      <c r="AJ32" s="45">
         <v>0.61099999999999999</v>
       </c>
-      <c r="AJ32" s="45">
+      <c r="AK32" s="45">
         <v>0.77777777999999997</v>
       </c>
-      <c r="AK32" s="45">
+      <c r="AL32" s="45">
         <v>0.72395832999999998</v>
-      </c>
-      <c r="AL32">
-        <v>0.94444444444444398</v>
       </c>
       <c r="AM32">
         <v>0.94444444444444398</v>
       </c>
       <c r="AN32">
-        <v>0.88888888888888795</v>
+        <v>0.94444444444444398</v>
       </c>
       <c r="AO32">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AQ32">
+      <c r="AP32">
         <v>0.88888888888888795</v>
       </c>
       <c r="AR32">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="AS32">
         <v>0.72052777777777799</v>
       </c>
-      <c r="AS32">
+      <c r="AT32">
         <v>0.60416666666666596</v>
       </c>
-      <c r="AT32" s="29">
+      <c r="AU32" s="29">
         <v>31</v>
       </c>
-      <c r="AU32">
+      <c r="AV32">
         <v>0.47</v>
       </c>
-      <c r="AV32">
-        <v>0.75</v>
-      </c>
       <c r="AW32">
+        <v>0.86111110448837203</v>
+      </c>
+      <c r="AX32">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AX32" s="31">
+      <c r="AY32" s="31">
         <v>31</v>
       </c>
-      <c r="AY32">
+      <c r="AZ32">
         <v>0.69399999999999995</v>
       </c>
-      <c r="AZ32">
+      <c r="BA32">
         <v>0.67</v>
       </c>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:53">
       <c r="A33" s="22" t="s">
         <v>121</v>
       </c>
@@ -22269,59 +22368,62 @@
       <c r="AH33">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AI33" s="45">
+      <c r="AI33">
+        <v>0.61111110448837203</v>
+      </c>
+      <c r="AJ33" s="45">
         <v>0.44400000000000001</v>
       </c>
-      <c r="AJ33" s="45">
+      <c r="AK33" s="45">
         <v>0.86111110999999996</v>
       </c>
-      <c r="AK33" s="45">
+      <c r="AL33" s="45">
         <v>0.66666667000000002</v>
-      </c>
-      <c r="AL33">
-        <v>0.83333333333333304</v>
       </c>
       <c r="AM33">
         <v>0.83333333333333304</v>
       </c>
       <c r="AN33">
-        <v>0.88888888888888795</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="AO33">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AQ33">
+      <c r="AP33">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="AR33">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AR33">
+      <c r="AS33">
         <v>0.71791666666666598</v>
       </c>
-      <c r="AS33">
+      <c r="AT33">
         <v>0.59375</v>
       </c>
-      <c r="AT33" s="29">
+      <c r="AU33" s="29">
         <v>32</v>
       </c>
-      <c r="AU33">
+      <c r="AV33">
         <v>0.89</v>
       </c>
-      <c r="AV33">
+      <c r="AW33">
         <v>0.88888889551162698</v>
       </c>
-      <c r="AW33">
+      <c r="AX33">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AX33" s="31">
+      <c r="AY33" s="31">
         <v>32</v>
       </c>
-      <c r="AY33">
+      <c r="AZ33">
         <v>0.66700000000000004</v>
       </c>
-      <c r="AZ33">
+      <c r="BA33">
         <v>0.69</v>
       </c>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:53">
       <c r="A34" s="22" t="s">
         <v>122</v>
       </c>
@@ -22412,59 +22514,62 @@
       <c r="AH34">
         <v>0.75</v>
       </c>
-      <c r="AI34" s="45">
+      <c r="AI34">
+        <v>0.61111110448837203</v>
+      </c>
+      <c r="AJ34" s="45">
         <v>0.33300000000000002</v>
       </c>
-      <c r="AJ34" s="45">
+      <c r="AK34" s="45">
         <v>0.75</v>
       </c>
-      <c r="AK34" s="45">
+      <c r="AL34" s="45">
         <v>0.59375</v>
-      </c>
-      <c r="AL34">
-        <v>0.63888888888888795</v>
       </c>
       <c r="AM34">
         <v>0.63888888888888795</v>
       </c>
       <c r="AN34">
+        <v>0.63888888888888795</v>
+      </c>
+      <c r="AO34">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AO34">
+      <c r="AP34">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AQ34">
+      <c r="AR34">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AR34">
+      <c r="AS34">
         <v>0.70652777777777698</v>
       </c>
-      <c r="AS34">
+      <c r="AT34">
         <v>0.46354166666666602</v>
       </c>
-      <c r="AT34" s="29">
+      <c r="AU34" s="29">
         <v>33</v>
       </c>
-      <c r="AU34">
+      <c r="AV34">
         <v>0.77</v>
       </c>
-      <c r="AV34">
+      <c r="AW34">
         <v>0.58333331346511796</v>
       </c>
-      <c r="AW34">
+      <c r="AX34">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AX34" s="31">
+      <c r="AY34" s="31">
         <v>33</v>
       </c>
-      <c r="AY34">
+      <c r="AZ34">
         <v>0.58299999999999996</v>
       </c>
-      <c r="AZ34">
+      <c r="BA34">
         <v>0.81</v>
       </c>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:53">
       <c r="A35" s="22" t="s">
         <v>123</v>
       </c>
@@ -22552,56 +22657,59 @@
       <c r="AH35">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AI35" s="45">
+      <c r="AI35">
+        <v>0.80555558204650801</v>
+      </c>
+      <c r="AJ35" s="45">
         <v>0.5</v>
       </c>
-      <c r="AJ35" s="45">
+      <c r="AK35" s="45">
         <v>0.63888889000000004</v>
       </c>
-      <c r="AK35" s="45">
+      <c r="AL35" s="45">
         <v>0.58854167000000002</v>
-      </c>
-      <c r="AL35">
-        <v>0.75</v>
       </c>
       <c r="AM35">
         <v>0.75</v>
       </c>
       <c r="AN35">
-        <v>0.72222222222222199</v>
+        <v>0.75</v>
       </c>
       <c r="AO35">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AQ35">
+      <c r="AP35">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="AR35">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AR35">
+      <c r="AS35">
         <v>0.705277777777778</v>
       </c>
-      <c r="AS35">
+      <c r="AT35">
         <v>0.546875</v>
       </c>
-      <c r="AT35" s="29">
+      <c r="AU35" s="29">
         <v>34</v>
       </c>
-      <c r="AU35">
+      <c r="AV35">
         <v>0.42</v>
       </c>
-      <c r="AV35">
-        <v>0.72222220897674505</v>
-      </c>
       <c r="AW35">
+        <v>0.61111110448837203</v>
+      </c>
+      <c r="AX35">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AX35" s="31">
+      <c r="AY35" s="31">
         <v>34</v>
       </c>
-      <c r="AY35">
+      <c r="AZ35">
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:53">
       <c r="A36" s="22" t="s">
         <v>124</v>
       </c>
@@ -22689,17 +22797,17 @@
       <c r="AH36">
         <v>0.63888888888888795</v>
       </c>
-      <c r="AI36" s="45">
+      <c r="AI36">
+        <v>0.66666668653488104</v>
+      </c>
+      <c r="AJ36" s="45">
         <v>0.33300000000000002</v>
       </c>
-      <c r="AJ36" s="45">
+      <c r="AK36" s="45">
         <v>0.77777777999999997</v>
       </c>
-      <c r="AK36" s="45">
+      <c r="AL36" s="45">
         <v>0.53645832999999998</v>
-      </c>
-      <c r="AL36">
-        <v>0.61111111111111105</v>
       </c>
       <c r="AM36">
         <v>0.61111111111111105</v>
@@ -22708,37 +22816,40 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="AO36">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="AP36">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AQ36">
+      <c r="AR36">
         <v>0.58333333333333304</v>
       </c>
-      <c r="AR36">
+      <c r="AS36">
         <v>0.71786111111111095</v>
       </c>
-      <c r="AS36">
+      <c r="AT36">
         <v>0.55729166666666596</v>
       </c>
-      <c r="AT36" s="29">
+      <c r="AU36" s="29">
         <v>35</v>
       </c>
-      <c r="AU36">
+      <c r="AV36">
         <v>0.64</v>
       </c>
-      <c r="AV36">
+      <c r="AW36">
         <v>0.61111110448837203</v>
       </c>
-      <c r="AW36">
+      <c r="AX36">
         <v>0.58333333333333304</v>
       </c>
-      <c r="AX36" s="31">
+      <c r="AY36" s="31">
         <v>35</v>
       </c>
-      <c r="AY36">
+      <c r="AZ36">
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:53">
       <c r="A37" s="27" t="s">
         <v>125</v>
       </c>
@@ -22826,56 +22937,59 @@
       <c r="AH37">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AI37" s="45">
+      <c r="AI37">
+        <v>0.75</v>
+      </c>
+      <c r="AJ37" s="45">
         <v>0.63900000000000001</v>
       </c>
-      <c r="AJ37" s="45">
+      <c r="AK37" s="45">
         <v>0.69444444000000005</v>
       </c>
-      <c r="AK37" s="45">
+      <c r="AL37" s="45">
         <v>0.578125</v>
-      </c>
-      <c r="AL37">
-        <v>0.83333333333333304</v>
       </c>
       <c r="AM37">
         <v>0.83333333333333304</v>
       </c>
       <c r="AN37">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AO37">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AO37">
+      <c r="AP37">
         <v>0.88888888888888795</v>
       </c>
-      <c r="AQ37">
+      <c r="AR37">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AR37">
+      <c r="AS37">
         <v>0.729527777777778</v>
       </c>
-      <c r="AS37">
+      <c r="AT37">
         <v>0.515625</v>
       </c>
-      <c r="AT37" s="29">
+      <c r="AU37" s="29">
         <v>36</v>
       </c>
-      <c r="AU37">
+      <c r="AV37">
         <v>0.78</v>
       </c>
-      <c r="AV37">
-        <v>0.66666668653488104</v>
-      </c>
       <c r="AW37">
+        <v>0.80555558204650801</v>
+      </c>
+      <c r="AX37">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AX37" s="31">
+      <c r="AY37" s="31">
         <v>36</v>
       </c>
-      <c r="AY37">
+      <c r="AZ37">
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:53">
       <c r="A38" s="28" t="s">
         <v>129</v>
       </c>
@@ -22966,47 +23080,50 @@
       <c r="AH38">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AI38" s="45">
+      <c r="AI38">
+        <v>0.83333331346511796</v>
+      </c>
+      <c r="AJ38" s="45">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AJ38" s="45">
+      <c r="AK38" s="45">
         <v>0.58333332999999998</v>
       </c>
-      <c r="AK38" s="45">
+      <c r="AL38" s="45">
         <v>0.70833332999999998</v>
-      </c>
-      <c r="AL38">
-        <v>0.77777777777777701</v>
       </c>
       <c r="AM38">
         <v>0.77777777777777701</v>
       </c>
       <c r="AN38">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="AO38">
         <v>0.69444444444444398</v>
       </c>
-      <c r="AO38">
+      <c r="AP38">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AQ38">
+      <c r="AR38">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AR38">
+      <c r="AS38">
         <v>0.72055555555555495</v>
       </c>
-      <c r="AS38">
+      <c r="AT38">
         <v>0.64583333333333304</v>
       </c>
-      <c r="AT38">
+      <c r="AU38">
         <v>37</v>
       </c>
-      <c r="AW38">
+      <c r="AX38">
         <v>-1</v>
       </c>
-      <c r="AX38">
+      <c r="AY38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:53">
       <c r="A39" s="22" t="s">
         <v>133</v>
       </c>
@@ -23097,53 +23214,56 @@
       <c r="AH39">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AI39" s="45">
+      <c r="AI39">
+        <v>0.66666668653488104</v>
+      </c>
+      <c r="AJ39" s="45">
         <v>0.58299999999999996</v>
       </c>
-      <c r="AJ39" s="45">
+      <c r="AK39" s="45">
         <v>0.63888889000000004</v>
       </c>
-      <c r="AK39" s="45">
+      <c r="AL39" s="45">
         <v>0.61979167000000002</v>
-      </c>
-      <c r="AL39">
-        <v>0.83333333333333304</v>
       </c>
       <c r="AM39">
         <v>0.83333333333333304</v>
       </c>
       <c r="AN39">
-        <v>0.72222222222222199</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="AO39">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AQ39">
+      <c r="AP39">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="AR39">
         <v>0.75</v>
       </c>
-      <c r="AR39">
+      <c r="AS39">
         <v>0.71747222222222196</v>
       </c>
-      <c r="AS39">
+      <c r="AT39">
         <v>0.59895833333333304</v>
       </c>
-      <c r="AT39" s="29">
+      <c r="AU39" s="29">
         <v>38</v>
       </c>
-      <c r="AU39">
+      <c r="AV39">
         <v>0.75</v>
       </c>
-      <c r="AV39">
-        <v>0.72222220897674505</v>
-      </c>
       <c r="AW39">
+        <v>0.66666668653488104</v>
+      </c>
+      <c r="AX39">
         <v>0.72222222222222199</v>
       </c>
-      <c r="AX39" s="31">
+      <c r="AY39" s="31">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40" spans="1:53">
       <c r="A40" s="22" t="s">
         <v>134</v>
       </c>
@@ -23234,53 +23354,56 @@
       <c r="AH40">
         <v>0.86111111111111105</v>
       </c>
-      <c r="AI40" s="45">
+      <c r="AI40">
+        <v>0.66666668653488104</v>
+      </c>
+      <c r="AJ40" s="45">
         <v>0.44400000000000001</v>
       </c>
-      <c r="AJ40" s="45">
+      <c r="AK40" s="45">
         <v>0.83333332999999998</v>
       </c>
-      <c r="AK40" s="45">
+      <c r="AL40" s="45">
         <v>0.578125</v>
-      </c>
-      <c r="AL40">
-        <v>0.83333333333333304</v>
       </c>
       <c r="AM40">
         <v>0.83333333333333304</v>
       </c>
       <c r="AN40">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AO40">
         <v>0.77777777777777701</v>
       </c>
-      <c r="AO40">
+      <c r="AP40">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AQ40">
+      <c r="AR40">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AR40">
+      <c r="AS40">
         <v>0.72350000000000003</v>
       </c>
-      <c r="AS40">
+      <c r="AT40">
         <v>0.609375</v>
       </c>
-      <c r="AT40" s="29">
+      <c r="AU40" s="29">
         <v>39</v>
       </c>
-      <c r="AU40">
+      <c r="AV40">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AV40">
-        <v>0.80555558204650801</v>
-      </c>
       <c r="AW40">
+        <v>0.75</v>
+      </c>
+      <c r="AX40">
         <v>0.80555555555555503</v>
       </c>
-      <c r="AX40" s="31">
+      <c r="AY40" s="31">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:53">
       <c r="A41" s="27" t="s">
         <v>135</v>
       </c>
@@ -23371,17 +23494,14 @@
       <c r="AH41">
         <v>0.76666666666666605</v>
       </c>
-      <c r="AI41" s="45">
+      <c r="AJ41" s="45">
         <v>0.6</v>
       </c>
-      <c r="AJ41" s="45">
+      <c r="AK41" s="45">
         <v>0.7</v>
       </c>
-      <c r="AK41" s="45">
+      <c r="AL41" s="45">
         <v>0.66666667000000002</v>
-      </c>
-      <c r="AL41">
-        <v>0.73333333333333295</v>
       </c>
       <c r="AM41">
         <v>0.73333333333333295</v>
@@ -23390,34 +23510,37 @@
         <v>0.73333333333333295</v>
       </c>
       <c r="AO41">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="AP41">
         <v>0.7</v>
       </c>
-      <c r="AQ41">
+      <c r="AR41">
         <v>0.8</v>
       </c>
-      <c r="AR41">
+      <c r="AS41">
         <v>0.71622222222222198</v>
       </c>
-      <c r="AS41">
+      <c r="AT41">
         <v>0.58974358974358898</v>
       </c>
-      <c r="AT41" s="29">
+      <c r="AU41" s="29">
         <v>40</v>
       </c>
-      <c r="AU41">
+      <c r="AV41">
         <v>0.67</v>
       </c>
-      <c r="AV41">
-        <v>0.76666665077209395</v>
-      </c>
       <c r="AW41">
+        <v>0.83333331346511796</v>
+      </c>
+      <c r="AX41">
         <v>0.76666666666666605</v>
       </c>
-      <c r="AX41">
+      <c r="AY41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42" spans="1:53">
       <c r="A42" s="28" t="s">
         <v>138</v>
       </c>
@@ -23481,37 +23604,34 @@
       <c r="AH42">
         <v>0.76666666666666605</v>
       </c>
-      <c r="AI42" s="45">
+      <c r="AJ42" s="45">
         <v>0.63300000000000001</v>
       </c>
-      <c r="AJ42" s="45">
+      <c r="AK42" s="45">
         <v>0.73333333000000001</v>
       </c>
-      <c r="AK42" s="45">
+      <c r="AL42" s="45">
         <v>0.65384615000000001</v>
       </c>
-      <c r="AL42" s="42"/>
       <c r="AM42" s="42"/>
-      <c r="AN42">
+      <c r="AN42" s="42"/>
+      <c r="AO42">
         <v>0</v>
       </c>
-      <c r="AQ42">
+      <c r="AR42">
         <v>0.63333333333333297</v>
       </c>
-      <c r="AT42" s="29">
-        <v>41</v>
-      </c>
-      <c r="AV42">
-        <v>0.66666668653488104</v>
-      </c>
-      <c r="AW42">
+      <c r="AU42" s="29">
         <v>41</v>
       </c>
       <c r="AX42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:52">
+      <c r="AY42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:53">
       <c r="A43" s="27" t="s">
         <v>136</v>
       </c>
@@ -23601,38 +23721,35 @@
       <c r="AH43">
         <v>0.73333333333333295</v>
       </c>
-      <c r="AI43" s="45">
+      <c r="AJ43" s="45">
         <v>0.4</v>
       </c>
-      <c r="AJ43" s="45">
+      <c r="AK43" s="45">
         <v>0.6</v>
       </c>
-      <c r="AK43" s="45">
+      <c r="AL43" s="45">
         <v>0.55769230999999997</v>
       </c>
-      <c r="AM43">
+      <c r="AN43">
         <v>0</v>
       </c>
-      <c r="AQ43">
+      <c r="AR43">
         <v>0.56666666666666599</v>
       </c>
-      <c r="AS43">
+      <c r="AT43">
         <v>0.64</v>
       </c>
-      <c r="AT43" s="29">
+      <c r="AU43" s="29">
         <v>42</v>
       </c>
-      <c r="AU43">
+      <c r="AV43">
         <v>42</v>
       </c>
-      <c r="AV43">
-        <v>0.63333332538604703</v>
-      </c>
-      <c r="AX43">
+      <c r="AY43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44" spans="1:53">
       <c r="T44" s="41">
         <v>0.58333333333333304</v>
       </c>
@@ -23670,42 +23787,43 @@
         <f>AVERAGE(AH2:AH43)</f>
         <v>0.74708994708994658</v>
       </c>
-      <c r="AI44" s="43">
-        <f t="shared" ref="AI44:AJ44" si="2">AVERAGE(AI2:AI43)</f>
+      <c r="AI44" s="43"/>
+      <c r="AJ44" s="43">
+        <f t="shared" ref="AJ44:AK44" si="2">AVERAGE(AJ2:AJ43)</f>
         <v>0.50545238095238088</v>
       </c>
-      <c r="AJ44" s="43">
+      <c r="AK44" s="43">
         <f t="shared" si="2"/>
         <v>0.6792328040476191</v>
       </c>
-      <c r="AK44" s="43"/>
-      <c r="AL44" s="43">
-        <f>AVERAGE(AM2:AM43)</f>
-        <v>0.73109756097560918</v>
-      </c>
+      <c r="AL44" s="43"/>
       <c r="AM44" s="43">
         <f>AVERAGE(AN2:AN43)</f>
+        <v>0.73109756097560918</v>
+      </c>
+      <c r="AN44" s="43">
+        <f>AVERAGE(AO2:AO43)</f>
         <v>0.71537940379403742</v>
       </c>
-      <c r="AN44" s="43"/>
       <c r="AO44" s="43"/>
       <c r="AP44" s="43"/>
-      <c r="AQ44" s="43">
-        <f>AVERAGE(AQ2:AQ43)</f>
+      <c r="AQ44" s="43"/>
+      <c r="AR44" s="43">
+        <f>AVERAGE(AR2:AR43)</f>
         <v>0.73240740740740684</v>
       </c>
-      <c r="AR44" s="43">
-        <f>AVERAGE(AS2:AS41)</f>
+      <c r="AS44" s="43">
+        <f>AVERAGE(AT2:AT41)</f>
         <v>0.55764723557692242</v>
       </c>
-      <c r="AT44" s="43"/>
       <c r="AU44" s="43"/>
-      <c r="AV44" s="43">
-        <f>AVERAGE(AV2:AV43)</f>
-        <v>0.70669516080465056</v>
-      </c>
-    </row>
-    <row r="45" spans="1:52">
+      <c r="AV44" s="43"/>
+      <c r="AW44" s="43">
+        <f>AVERAGE(AW2:AW43)</f>
+        <v>0.71816816845455678</v>
+      </c>
+    </row>
+    <row r="45" spans="1:53">
       <c r="T45" s="41">
         <v>0.80555555555555503</v>
       </c>
@@ -23724,30 +23842,31 @@
       <c r="AI45" s="44"/>
       <c r="AJ45" s="44"/>
       <c r="AK45" s="44"/>
-      <c r="AL45" s="44" t="s">
+      <c r="AL45" s="44"/>
+      <c r="AM45" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="AM45" s="44" t="s">
+      <c r="AN45" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="AN45" s="44"/>
       <c r="AO45" s="44"/>
       <c r="AP45" s="44"/>
       <c r="AQ45" s="44"/>
-      <c r="AR45" s="44" t="s">
+      <c r="AR45" s="44"/>
+      <c r="AS45" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="AV45" s="44"/>
-      <c r="AX45">
-        <f t="shared" ref="AX45:AY45" si="3">AVERAGE(AX2:AX44)</f>
+      <c r="AW45" s="44"/>
+      <c r="AY45">
+        <f t="shared" ref="AY45:AZ45" si="3">AVERAGE(AY2:AY44)</f>
         <v>21.5</v>
       </c>
-      <c r="AY45">
+      <c r="AZ45">
         <f t="shared" si="3"/>
         <v>0.73654838709677428</v>
       </c>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:53">
       <c r="T46" s="41">
         <v>0.61111111111111105</v>
       </c>
@@ -23766,25 +23885,23 @@
       <c r="AI46" s="44"/>
       <c r="AJ46" s="44"/>
       <c r="AK46" s="44"/>
-      <c r="AL46" s="44" t="s">
+      <c r="AL46" s="44"/>
+      <c r="AM46" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="AM46" s="44" t="s">
+      <c r="AN46" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="AN46" s="44"/>
       <c r="AO46" s="44"/>
       <c r="AP46" s="44"/>
       <c r="AQ46" s="44"/>
-      <c r="AR46" s="44" t="s">
+      <c r="AR46" s="44"/>
+      <c r="AS46" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="AV46" s="44">
-        <f>CORREL(AU2:AU41,AV2:AV41)</f>
-        <v>-8.2548468795546934E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:52">
+      <c r="AW46" s="44"/>
+    </row>
+    <row r="47" spans="1:53">
       <c r="T47" s="41">
         <v>0.75</v>
       </c>
@@ -23800,13 +23917,13 @@
       <c r="AH47" t="s">
         <v>157</v>
       </c>
-      <c r="AL47" t="s">
+      <c r="AM47" t="s">
         <v>158</v>
       </c>
-      <c r="AM47" t="s">
+      <c r="AN47" t="s">
         <v>159</v>
       </c>
-      <c r="AR47" t="s">
+      <c r="AS47" t="s">
         <v>160</v>
       </c>
     </row>

--- a/allen/0314_allen.xlsx
+++ b/allen/0314_allen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Documents/course/4490/Jan.29/allen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBE0DCA-D89B-4B4D-AAED-B3D19D87FD5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8DC746-15C9-5148-8172-1A7F24DD29BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{AC1511F3-6BA7-BE48-A015-DD3B5079386A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{AC1511F3-6BA7-BE48-A015-DD3B5079386A}"/>
   </bookViews>
   <sheets>
     <sheet name="order diff_0.1" sheetId="1" r:id="rId1"/>
@@ -17606,8 +17606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF16A8E3-8919-453D-ABD1-0B00F4C48563}">
   <dimension ref="A1:BA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AW27" sqref="AW27"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -17903,7 +17903,7 @@
         <v>0.88888888888888795</v>
       </c>
       <c r="AI2">
-        <v>0.97222220897674505</v>
+        <v>0.88888889551162698</v>
       </c>
       <c r="AJ2" s="45">
         <v>0.36099999999999999</v>
@@ -18049,7 +18049,7 @@
         <v>0.77777777777777701</v>
       </c>
       <c r="AI3">
-        <v>0.80555558204650801</v>
+        <v>0.86111110448837203</v>
       </c>
       <c r="AJ3" s="45">
         <v>0.55600000000000005</v>
@@ -18198,7 +18198,7 @@
         <v>0.80555555555555503</v>
       </c>
       <c r="AI4">
-        <v>0.75</v>
+        <v>0.61111110448837203</v>
       </c>
       <c r="AJ4" s="45">
         <v>0.52800000000000002</v>
@@ -18344,7 +18344,7 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="AI5">
-        <v>0.58333331346511796</v>
+        <v>0.72222220897674505</v>
       </c>
       <c r="AJ5" s="45">
         <v>0.47199999999999998</v>
@@ -18490,7 +18490,7 @@
         <v>0.88888888888888795</v>
       </c>
       <c r="AI6">
-        <v>0.88888889551162698</v>
+        <v>0.86111110448837203</v>
       </c>
       <c r="AJ6" s="45">
         <v>0.38900000000000001</v>
@@ -18636,7 +18636,7 @@
         <v>0.86111111111111105</v>
       </c>
       <c r="AI7">
-        <v>0.77777779102325395</v>
+        <v>0.91666668653488104</v>
       </c>
       <c r="AJ7" s="45">
         <v>0.52800000000000002</v>
@@ -18925,7 +18925,7 @@
         <v>0.72222222222222199</v>
       </c>
       <c r="AI9">
-        <v>0.63888889551162698</v>
+        <v>0.66666668653488104</v>
       </c>
       <c r="AJ9" s="45">
         <v>0.44400000000000001</v>
@@ -19214,7 +19214,7 @@
         <v>0.72222222222222199</v>
       </c>
       <c r="AI11">
-        <v>0.69444441795349099</v>
+        <v>0.66666668653488104</v>
       </c>
       <c r="AJ11" s="45">
         <v>0.47199999999999998</v>
@@ -19360,7 +19360,7 @@
         <v>0.73333333333333295</v>
       </c>
       <c r="AI12">
-        <v>0.73333334922790505</v>
+        <v>0.63333332538604703</v>
       </c>
       <c r="AJ12" s="45">
         <v>0.433</v>
@@ -19497,7 +19497,7 @@
         <v>0.5</v>
       </c>
       <c r="AI13">
-        <v>0.77777779102325395</v>
+        <v>0.83333331346511796</v>
       </c>
       <c r="AJ13" s="45">
         <v>0.5</v>
@@ -19631,7 +19631,7 @@
         <v>0.91666666666666596</v>
       </c>
       <c r="AI14">
-        <v>0.69999998807907104</v>
+        <v>0.80555558204650801</v>
       </c>
       <c r="AJ14" s="45">
         <v>0.52800000000000002</v>
@@ -19774,7 +19774,7 @@
         <v>0.76666666666666605</v>
       </c>
       <c r="AI15">
-        <v>0.61111110448837203</v>
+        <v>0.66666668653488104</v>
       </c>
       <c r="AJ15" s="45">
         <v>0.56699999999999995</v>
@@ -19914,7 +19914,7 @@
         <v>0.55555555555555503</v>
       </c>
       <c r="AI16">
-        <v>0.80555558204650801</v>
+        <v>0.55555558204650801</v>
       </c>
       <c r="AJ16" s="45">
         <v>0.41699999999999998</v>
@@ -20057,7 +20057,7 @@
         <v>0.69444444444444398</v>
       </c>
       <c r="AI17">
-        <v>0.83333331346511796</v>
+        <v>0.63888889551162698</v>
       </c>
       <c r="AJ17" s="45">
         <v>0.55600000000000005</v>
@@ -20200,7 +20200,7 @@
         <v>0.77777777777777701</v>
       </c>
       <c r="AI18">
-        <v>0.66666668653488104</v>
+        <v>0.75</v>
       </c>
       <c r="AJ18" s="45">
         <v>0.61099999999999999</v>
@@ -20346,7 +20346,7 @@
         <v>0.72222222222222199</v>
       </c>
       <c r="AI19">
-        <v>0.55555558204650801</v>
+        <v>0.66666668653488104</v>
       </c>
       <c r="AJ19" s="45">
         <v>0.30599999999999999</v>
@@ -20495,7 +20495,7 @@
         <v>0.75</v>
       </c>
       <c r="AI20">
-        <v>0.66666668653488104</v>
+        <v>0.75</v>
       </c>
       <c r="AJ20" s="45">
         <v>0.625</v>
@@ -20626,7 +20626,7 @@
         <v>0.63888888888888795</v>
       </c>
       <c r="AI21">
-        <v>0.61111110448837203</v>
+        <v>0.52777779102325395</v>
       </c>
       <c r="AJ21" s="45">
         <v>0.58299999999999996</v>
@@ -20772,7 +20772,7 @@
         <v>0.72222222222222199</v>
       </c>
       <c r="AI22">
-        <v>0.61111110448837203</v>
+        <v>0.66666668653488104</v>
       </c>
       <c r="AJ22" s="45">
         <v>0.36099999999999999</v>
@@ -20918,7 +20918,7 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="AI23">
-        <v>0.69444441795349099</v>
+        <v>0.63888889551162698</v>
       </c>
       <c r="AJ23" s="45">
         <v>0.47199999999999998</v>
@@ -21061,7 +21061,7 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="AI24">
-        <v>0.83333331346511796</v>
+        <v>0.47222220897674499</v>
       </c>
       <c r="AJ24" s="45">
         <v>0.55600000000000005</v>
@@ -21207,7 +21207,7 @@
         <v>0.75</v>
       </c>
       <c r="AI25">
-        <v>0.61111110448837203</v>
+        <v>0.69444441795349099</v>
       </c>
       <c r="AJ25" s="45">
         <v>0.47199999999999998</v>
@@ -21356,7 +21356,7 @@
         <v>0.77777777777777701</v>
       </c>
       <c r="AI26">
-        <v>0.75</v>
+        <v>0.83333331346511796</v>
       </c>
       <c r="AJ26" s="45">
         <v>0.61099999999999999</v>
@@ -21502,7 +21502,7 @@
         <v>0.72222222222222199</v>
       </c>
       <c r="AI27">
-        <v>0.55555558204650801</v>
+        <v>0.52777779102325395</v>
       </c>
       <c r="AJ27" s="45">
         <v>0.52800000000000002</v>
@@ -21645,7 +21645,7 @@
         <v>0.88888888888888795</v>
       </c>
       <c r="AI28">
-        <v>0.58333331346511796</v>
+        <v>0.72222220897674505</v>
       </c>
       <c r="AJ28" s="45">
         <v>0.61099999999999999</v>
@@ -21791,7 +21791,7 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="AI29">
-        <v>0.77777779102325395</v>
+        <v>0.58333331346511796</v>
       </c>
       <c r="AJ29" s="45">
         <v>0.63900000000000001</v>
@@ -21937,7 +21937,7 @@
         <v>0.75</v>
       </c>
       <c r="AI30">
-        <v>0.86111110448837203</v>
+        <v>0.61111110448837203</v>
       </c>
       <c r="AJ30" s="45">
         <v>0.41699999999999998</v>
@@ -22083,7 +22083,7 @@
         <v>0.63888888888888795</v>
       </c>
       <c r="AI31">
-        <v>0.88888889551162698</v>
+        <v>0.77777779102325395</v>
       </c>
       <c r="AJ31" s="45">
         <v>0.44400000000000001</v>
@@ -22226,7 +22226,7 @@
         <v>0.91666666666666596</v>
       </c>
       <c r="AI32">
-        <v>0.58333331346511796</v>
+        <v>0.75</v>
       </c>
       <c r="AJ32" s="45">
         <v>0.61099999999999999</v>
@@ -22369,7 +22369,7 @@
         <v>0.80555555555555503</v>
       </c>
       <c r="AI33">
-        <v>0.61111110448837203</v>
+        <v>0.69444441795349099</v>
       </c>
       <c r="AJ33" s="45">
         <v>0.44400000000000001</v>
@@ -22515,7 +22515,7 @@
         <v>0.75</v>
       </c>
       <c r="AI34">
-        <v>0.61111110448837203</v>
+        <v>0.55555558204650801</v>
       </c>
       <c r="AJ34" s="45">
         <v>0.33300000000000002</v>
@@ -22658,7 +22658,7 @@
         <v>0.69444444444444398</v>
       </c>
       <c r="AI35">
-        <v>0.80555558204650801</v>
+        <v>0.77777779102325395</v>
       </c>
       <c r="AJ35" s="45">
         <v>0.5</v>
@@ -22798,7 +22798,7 @@
         <v>0.63888888888888795</v>
       </c>
       <c r="AI36">
-        <v>0.66666668653488104</v>
+        <v>0.61111110448837203</v>
       </c>
       <c r="AJ36" s="45">
         <v>0.33300000000000002</v>
@@ -22938,7 +22938,7 @@
         <v>0.86111111111111105</v>
       </c>
       <c r="AI37">
-        <v>0.75</v>
+        <v>0.66666668653488104</v>
       </c>
       <c r="AJ37" s="45">
         <v>0.63900000000000001</v>
@@ -23081,7 +23081,7 @@
         <v>0.77777777777777701</v>
       </c>
       <c r="AI38">
-        <v>0.83333331346511796</v>
+        <v>0.69444441795349099</v>
       </c>
       <c r="AJ38" s="45">
         <v>0.55600000000000005</v>
@@ -23215,7 +23215,7 @@
         <v>0.77777777777777701</v>
       </c>
       <c r="AI39">
-        <v>0.66666668653488104</v>
+        <v>0.52777779102325395</v>
       </c>
       <c r="AJ39" s="45">
         <v>0.58299999999999996</v>
@@ -23355,7 +23355,7 @@
         <v>0.86111111111111105</v>
       </c>
       <c r="AI40">
-        <v>0.66666668653488104</v>
+        <v>0.83333331346511796</v>
       </c>
       <c r="AJ40" s="45">
         <v>0.44400000000000001</v>
@@ -23494,6 +23494,9 @@
       <c r="AH41">
         <v>0.76666666666666605</v>
       </c>
+      <c r="AI41">
+        <v>0.63333332538604703</v>
+      </c>
       <c r="AJ41" s="45">
         <v>0.6</v>
       </c>
@@ -23603,6 +23606,9 @@
       </c>
       <c r="AH42">
         <v>0.76666666666666605</v>
+      </c>
+      <c r="AI42">
+        <v>0.66666668653488104</v>
       </c>
       <c r="AJ42" s="45">
         <v>0.63300000000000001</v>
@@ -23721,6 +23727,9 @@
       <c r="AH43">
         <v>0.73333333333333295</v>
       </c>
+      <c r="AI43">
+        <v>0.60000002384185702</v>
+      </c>
       <c r="AJ43" s="45">
         <v>0.4</v>
       </c>
@@ -23787,7 +23796,10 @@
         <f>AVERAGE(AH2:AH43)</f>
         <v>0.74708994708994658</v>
       </c>
-      <c r="AI44" s="43"/>
+      <c r="AI44" s="43">
+        <f>AVERAGE(AI2:AI43)</f>
+        <v>0.69126984335127317</v>
+      </c>
       <c r="AJ44" s="43">
         <f t="shared" ref="AJ44:AK44" si="2">AVERAGE(AJ2:AJ43)</f>
         <v>0.50545238095238088</v>
